--- a/7_Data_Extraction/Data_Extraction_Bartolomeo.xlsx
+++ b/7_Data_Extraction/Data_Extraction_Bartolomeo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/7_Data_Extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF37918-7686-F54E-8B7F-2C066F58D7CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCCB76F-2F57-C54F-9130-0DC04A9349A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="6280" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="247">
   <si>
     <t>ID</t>
   </si>
@@ -775,13 +775,16 @@
     <t>RQ2.2</t>
   </si>
   <si>
-    <t>RQ4.1</t>
-  </si>
-  <si>
-    <t>RQ4.2</t>
-  </si>
-  <si>
-    <t>RQ3</t>
+    <t>RQ1.3a</t>
+  </si>
+  <si>
+    <t>RQ2.3</t>
+  </si>
+  <si>
+    <t>RQ3.1</t>
+  </si>
+  <si>
+    <t>RQ3.2</t>
   </si>
 </sst>
 </file>
@@ -1158,15 +1161,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX53"/>
+  <dimension ref="A1:AW53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AX13" sqref="AX13"/>
+      <selection activeCell="AY8" sqref="AY8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1297,24 +1300,25 @@
         <v>240</v>
       </c>
       <c r="AR1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AU1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-    </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="AW1" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>46</v>
       </c>
@@ -1334,7 +1338,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>50</v>
       </c>
@@ -1354,7 +1358,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>54</v>
       </c>
@@ -1374,7 +1378,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>58</v>
       </c>
@@ -1394,7 +1398,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>62</v>
       </c>
@@ -1414,7 +1418,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>66</v>
       </c>
@@ -1434,7 +1438,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>69</v>
       </c>
@@ -1454,7 +1458,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>73</v>
       </c>
@@ -1474,7 +1478,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>76</v>
       </c>
@@ -1494,7 +1498,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>79</v>
       </c>
@@ -1514,7 +1518,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>83</v>
       </c>
@@ -1534,7 +1538,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>87</v>
       </c>
@@ -1554,7 +1558,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>91</v>
       </c>
@@ -1574,7 +1578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>94</v>
       </c>
@@ -1594,7 +1598,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>98</v>
       </c>

--- a/7_Data_Extraction/Data_Extraction_Bartolomeo.xlsx
+++ b/7_Data_Extraction/Data_Extraction_Bartolomeo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/7_Data_Extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCCB76F-2F57-C54F-9130-0DC04A9349A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14B369F-3009-8344-89D5-EAEFE6C327F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="6280" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="241">
   <si>
     <t>ID</t>
   </si>
@@ -637,18 +637,6 @@
     <t>In automotive software engineering, system-level regression testing is crucial to ensure proper integration of often- times safety-critical components. Due to the inherent complexity of such systems and components, testing is commonly performed manually and in a black-box manner, which is particularly costly and leads to slow feedback cycles between testers and developers. Regression Test Prioritization (RTP) aims to reduce feedback time by ordering tests to reveal faults earlier during the testing process. However, most prior RTP research does not incorporate varying fault severity, which must be taken into account when evaluating and designing appropriate RTP approaches for safety-critical automotive software systems. In this work, we present a case study at our industry partner MAN, a leading international provider of commercial vehicles. We design and instantiate a domain-specific, severity-aware RTP assessment model and comparatively assess state-of-the-art RTP approaches. Our results indicate that simple and partly well- known heuristics based on test history and test costs have the best cost-effectiveness, achieving between 85% and 90% of the maximum possible feedback time reduction. On the other hand, search-based and machine-learning-based RTP approaches do not perform better, especially if available test history is sparse.</t>
   </si>
   <si>
-    <t>F Li, J Zhou, Y Li, D Hao, L Zhang</t>
-  </si>
-  <si>
-    <t>IEEE Transactions on Software Engineering, 2021</t>
-  </si>
-  <si>
-    <t>Aga: An accelerated greedy additional algorithm for test case prioritization</t>
-  </si>
-  <si>
-    <t>In recent years, many test case prioritization (TCP) techniques have been proposed to speed up the process of fault detection. However, little work has taken the efficiency problem of these techniques into account. In this paper, we target the Greedy Additional (GA) algorithm, which has been widely recognized to be effective but less efficient, and try to improve its efficiency while preserving effectiveness. In our Accelerated GA (AGA) algorithm, we use some extra data structures to reduce redundant data accesses in the GA algorithm and thus the time complexity is reduced from  to  when , where  is the number of test cases,  is the number of program elements, and is the iteration number. Moreover, we observe the impact of iteration numbers on prioritization efficiency on our dataset and propose to use a specific iteration number in the AGA algorithm to further improve the efficiency. We conducted experiments on 55 open-source subjects. In particular, we implemented each TCP algorithm with two kinds of widely-used input formats, adjacency matrix and adjacency list. Since a TCP algorithm with adjacency matrix is less efficient than the algorithm with adjacency list, the result analysis is mainly conducted based on TCP algorithms with adjacency list. The results show that AGA achieves 5.95X speedup ratio over GA on average, while it achieves the same average effectiveness as GA in terms of Average Percentage of Fault Detected (APFD). Moreover, we conducted an industrial case study on 22 subjects, collected from Baidu, and find that the average speedup ratio of AGA over GA is 44.27X, which indicates the practical usage of AGA in real-world scenarios.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nauman bin Ali, Emelie Engström, Masoumeh Taromirad, Mohammad Reza Mousavi, Nasir Mehmood Minhas, Daniel Helgesson, Sebastian Kunze &amp; Mahsa Varshosaz </t>
   </si>
   <si>
@@ -680,12 +668,6 @@
   </si>
   <si>
     <t>Regression testing is a maintenance level activity performed on a modified program to instill confidence in the software’s reliability. Prioritization of test case arranges the regression test suite to detect the faults earlier in the testing process. The test cases necessary for validating the recent changes and finding the maximum faults in minimum time are selected. In this manuscript, an optimization algorithm (Bee Algorithm) based on the intelligent foraging behavior of honey bee swarm has been proposed that can enhance the rate of fault detection in test case prioritization. The bee algorithm, along with the fuzzy rule base, reduces the test cases’ volume by selecting the test cases from the pre-existing test suite. The proposed algorithm developed for enhancing the fault detection rate in minimum time is inspired by the behavior of two types of worker bees, namely scout bees and forager bees. These worker bees are responsible for the maintenance, progress, and growth of the colony. The proposed approach is implemented on two projects. The prioritization result is quantified by using the average percentage of fault detection (APFD) metric. Compared with other existing prioritization techniques like no prioritization, reverse prioritization, random prioritization, and previous work, the proposed algorithm outperforms all in fault detection rate. The effectiveness of the proposed algorithm is represented by using the APFD graphs and charts.</t>
-  </si>
-  <si>
-    <t>S Mondal, R Nasre</t>
-  </si>
-  <si>
-    <t>Journal of Systems and Software, 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Soumen Nayak, Chiranjeev Kumar &amp; Sachin Tripathi </t>
@@ -1161,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW53"/>
+  <dimension ref="A1:AW51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AY8" sqref="AY8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1291,31 +1273,31 @@
         <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.2">
@@ -2129,7 +2111,7 @@
         <v>202</v>
       </c>
       <c r="F42">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="J42" t="s">
         <v>203</v>
@@ -2143,16 +2125,16 @@
         <v>204</v>
       </c>
       <c r="D43" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" t="s">
         <v>205</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43">
+        <v>2023</v>
+      </c>
+      <c r="J43" t="s">
         <v>206</v>
-      </c>
-      <c r="F43">
-        <v>2019</v>
-      </c>
-      <c r="J43" t="s">
-        <v>207</v>
       </c>
       <c r="AN43" t="s">
         <v>42</v>
@@ -2160,16 +2142,16 @@
     </row>
     <row r="44" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" t="s">
         <v>208</v>
-      </c>
-      <c r="D44" t="s">
-        <v>193</v>
       </c>
       <c r="E44" t="s">
         <v>209</v>
       </c>
       <c r="F44">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="J44" t="s">
         <v>210</v>
@@ -2189,7 +2171,7 @@
         <v>213</v>
       </c>
       <c r="F45">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J45" t="s">
         <v>214</v>
@@ -2202,37 +2184,34 @@
       <c r="C46" t="s">
         <v>215</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>216</v>
       </c>
-      <c r="E46" t="s">
-        <v>114</v>
-      </c>
       <c r="F46">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="J46" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="AN46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F47">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="J47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN47" t="s">
         <v>42</v>
@@ -2240,103 +2219,66 @@
     </row>
     <row r="48" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>221</v>
+        <v>223</v>
+      </c>
+      <c r="D48" t="s">
+        <v>45</v>
       </c>
       <c r="E48" t="s">
         <v>222</v>
       </c>
       <c r="F48">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="J48" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="3:40" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="3:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D49" t="s">
+        <v>227</v>
+      </c>
+      <c r="E49" t="s">
         <v>225</v>
       </c>
-      <c r="E49" t="s">
-        <v>226</v>
-      </c>
       <c r="F49">
-        <v>2024</v>
-      </c>
-      <c r="J49" t="s">
-        <v>227</v>
+        <v>2020</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="AN49" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
+    <row r="50" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D50" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" t="s">
         <v>229</v>
       </c>
-      <c r="D50" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" t="s">
-        <v>228</v>
-      </c>
       <c r="F50">
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="J50" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN50" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="3:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
-        <v>232</v>
-      </c>
-      <c r="D51" t="s">
-        <v>233</v>
-      </c>
-      <c r="E51" t="s">
-        <v>231</v>
-      </c>
-      <c r="F51">
-        <v>2020</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN51" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D52" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" t="s">
-        <v>235</v>
-      </c>
-      <c r="F52">
-        <v>2015</v>
-      </c>
-      <c r="J52" t="s">
-        <v>237</v>
-      </c>
-      <c r="AN52" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C53" s="2"/>
+    <row r="51" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/7_Data_Extraction/Data_Extraction_Bartolomeo.xlsx
+++ b/7_Data_Extraction/Data_Extraction_Bartolomeo.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/7_Data_Extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14B369F-3009-8344-89D5-EAEFE6C327F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E48931-55B4-3644-9CF1-A123760CAB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="169">
   <si>
     <t>ID</t>
   </si>
@@ -155,206 +158,88 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Journal of Systems and Software</t>
-  </si>
-  <si>
-    <t>SR</t>
+    <t>RQ1.1</t>
+  </si>
+  <si>
+    <t>RQ1.2</t>
+  </si>
+  <si>
+    <t>RQ1.3</t>
+  </si>
+  <si>
+    <t>RQ1.3a</t>
+  </si>
+  <si>
+    <t>RQ2.1</t>
+  </si>
+  <si>
+    <t>RQ2.2</t>
+  </si>
+  <si>
+    <t>RQ2.3</t>
+  </si>
+  <si>
+    <t>RQ3.1</t>
+  </si>
+  <si>
+    <t>RQ3.2</t>
+  </si>
+  <si>
+    <t>Ahmadreza Saboor Yaraghi; Mojtaba Bagherzadeh; Nafiseh Kahani; Lionel C. Briand</t>
+  </si>
+  <si>
+    <t>IEEE Transactions on Software Engineering</t>
+  </si>
+  <si>
+    <t>Scalable and Accurate Test Case Prioritization in Continuous Integration Contexts</t>
+  </si>
+  <si>
+    <t>Continuous Integration (CI) requires efficient regression testing to ensure software quality without significantly delaying its CI builds. This warrants the need for techniques to reduce regression testing time, such as Test Case Prioritization (TCP) techniques that prioritize the execution of test cases to detect faults as early as possible. Many recent TCP studies employ various Machine Learning (ML) techniques to deal with the dynamic and complex nature of CI. However, most of them use a limited number of features for training ML models and evaluate the models on subjects for which the application of TCP makes little practical sense, due to their small regression testing time and low number of failed builds. In this work, we first define, at a conceptual level, a data model that captures data sources and their relations in a typical CI environment. Second, based on this data model, we define a comprehensive set of features that covers all features previously used by related studies. Third, we develop methods and tools to collect the defined features for 25 open-source software systems with enough failed builds and whose regression testing takes at least five minutes. Fourth, relying on the collected dataset containing a comprehensive feature set, we answer four research questions concerning data collection time, the effectiveness of ML-based TCP, the impact of the features on effectiveness, the decay of ML-based TCP models over time, and the trade-off between data collection time and the effectiveness of ML-based TCP techniques.</t>
   </si>
   <si>
     <t>PS</t>
   </si>
   <si>
-    <t>SLR</t>
+    <t>B Jiang, Y Wu, Y Zhang, Z Zhang, WK Chan</t>
+  </si>
+  <si>
+    <t>IEEE Annual International Computer Software and Applications Conference (COMPSAC)</t>
+  </si>
+  <si>
+    <t>ReTestDroid: towards safer regression test selection for android application</t>
+  </si>
+  <si>
+    <t>Mobile applications are widely used in our daily life and Android is the most popular open source mobile operating system. Because mobile applications update frequently, it is important developers to perform regression testing to ensure their quality. Modeling the control flow of an android application based on the activity lifecycle model only is imprecise for regression testing. Because many Android applications use asynchronous tasks, fragments, and native code frequently, which must be considered during change impact analysis. Otherwise, regression test selection techniques may miss some failure-revealing test cases, compromising the safety of these techniques. In this work, we propose a novel approach to model asynchronous task invocations, fragment-based activity lifecycle, and native code within the control flow graph of an Android application. Furthermore, we designed a regression test selection tool ReTestDroid based on our graph model. Our experiments on five real-life Android applications showed that our approach could enable much safer regression test selection while significantly saving regression-testing time.</t>
+  </si>
+  <si>
+    <t>Y Lu, Y Lou, S Cheng, L Zhang, D Hao, Y Zhou, L Zhang</t>
   </si>
   <si>
     <t>ICSE '16: Proceedings of the 38th International Conference on Software Engineering</t>
   </si>
   <si>
-    <t>IEEE Transactions on Software Engineering</t>
-  </si>
-  <si>
-    <t>A Sharif, D Marijan, M Liaaen</t>
-  </si>
-  <si>
-    <t>2021 IEEE International Conference on Software Maintenance and Evolution (ICSME)</t>
-  </si>
-  <si>
-    <t>Deeporder: Deep learning for test case prioritization in continuous integration testing</t>
-  </si>
-  <si>
-    <t>Continuous integration testing is an important step in the modern software engineering life cycle. Test prioritization is a method that can improve the efficiency of continuous integration testing by selecting test cases that can detect faults in the early stage of each cycle. As continuous integration testing produces voluminous test execution data, test history is a commonly used artifact in test prioritization. However, existing test prioritization techniques for continuous integration either cannot handle large test history or are optimized for using a limited number of historical test cycles. We show that such a limitation can decrease fault detection effectiveness of prioritized test suites. This work introduces DeepOrder, a deep learning-based model that works on the basis of regression machine learning. DeepOrder ranks test cases based on the historical record of test executions from any number of previous test cycles. DeepOrder learns failed test cases based on multiple factors including the duration and execution status of test cases. We experimentally show that deep neural networks, as a simple regression model, can be efficiently used for test case prioritization in continuous integration testing. DeepOrder is evaluated with respect to time-effectiveness and fault detection effectiveness in comparison with an industry practice and the state of the art approaches. The results show that DeepOrder outperforms the industry practice and state-of-the-art test prioritization approaches in terms of these two metrics.</t>
-  </si>
-  <si>
-    <t>X Wang, S Zhang</t>
-  </si>
-  <si>
-    <t>Information and Software Technology, 2024</t>
-  </si>
-  <si>
-    <t>Cluster-based adaptive test case prioritization</t>
-  </si>
-  <si>
-    <t>In order to enhance the efficiency of regression testing, test case prioritization (TCP) has been widely implemented, wherein a higher priority test case is executed earlier. Traditional TCP methods focus on improving the prioritization algorithm's efficacy. However, the majority of TCP approaches are characterized by a predetermined sequence of test cases prior to execution. Once established, this sequence remains consistent throughout the entire test execution process. As a result, any execution information generated during current test execution (such as fault-detected information) is unavailable for use in current round of test case prioritization and can only be utilized in subsequent regression testing. To address the issue of lagging utilization of fault-detected information, a cluster-based adaptive test case prioritization approach is proposed, which adds the new adaptive adjustment content in pre-prioritization. First, a new clustering criterion is defined and designed, by which produces test-case clusters in advance. Second, an adaptive TCP algorithm is proposed, which utilizes fault-detected information to adaptively adjust the order of test cases during the execution process based on the test-case clusters. Finally, one open-source Java program and three industrial-grade Java programs were selected for empirical evaluation. The experimental results demonstrate that the proposed technique not only serves as an enhanced version of pre-prioritization to improve the performance of the corresponding pre-prioritization technique, but also functions as an independent approach that outperforms other TCP techniques, including cluster-based TCPs, and another adaptive TCP. Specifically, when step=2 is applied using our cluster-based adaptive TCP approach, the results are significantly better than those obtained with step=1. For instance, in CT-14, the median APFD improvement rate for step=2 reaches 17.08 %, which is substantially higher than that achieved with step=1 (5.48 %).</t>
-  </si>
-  <si>
-    <t>S Biswas, R Rathi, A Dutta, P Mitra, R Mall</t>
-  </si>
-  <si>
-    <t>International Journal of System Assurance Engineering and Management, 2022</t>
-  </si>
-  <si>
-    <t>A regression test case prioritization technique targeting 'hard to detect'faults</t>
-  </si>
-  <si>
-    <t>We propose a novel regression test case prioritization technique targeting to detect ‘hard to detect’ faults. A ‘hard to detect fault’ is a fault that is detected by only one test case. In our technique, we first seed a large number of bugs into a program to create mutants. Each mutant is executed with the test suite and their execution results are recorded in a fault matrix. Using the fault matrix, we first prioritize the test cases based on their ‘hard to detect’ values. Our technique assigns higher priority to those test cases which reveal bugs in a program-component that are hard to expose. Subsequently, the remaining test cases are prioritized based on their fault detection capability. Our experimental results show that on an average our proposed TCP technique performs 43.82% better than existing TCP techniques.</t>
-  </si>
-  <si>
-    <t>Matthias Hirzel, Jonathan Immanuel Brachthäuser, Herbert Klaeren</t>
-  </si>
-  <si>
-    <t>PPPJ '16: Proceedings of the 13th International Conference on Principles and Practices of Programming on the Java Platform: Virtual Machines, Languages, and Tools</t>
-  </si>
-  <si>
-    <t>Prioritizing Regression Tests for Desktop and Web-Applications based on the Execution Frequency of Modified Code</t>
-  </si>
-  <si>
-    <t>Regression testing can be very time expensive when running all available test cases. Test prioritization seeks to find faults early by reordering tests. Existing techniques decide in which order tests should be run based on coverage data, knowledge of code changes, historical data of prior test execution or a combination of them. Others postpone tests if similar ones are already selected for early execution. However, these approaches do not take into account that tests which appear similar still might explore different parts of the application's state space and thus can result in different test outcome. Approaches based on structural coverage or on historical data might ignore small tests focusing on behavior that rarely changes. In this paper, we present a novel prioritization technique that is based on the frequencies with which modified code parts are executed by the tests. Our technique assumes that multiple executions of a modified code part (under different contexts) have a higher chance to reveal faults than a single execution of this code. For this purpose, we use both the output of regression test selection as well as test traces obtained during test development. We propose multiple variants of our technique, including a feedback mechanism to optimize the prioritization order dynamically, and compare them in an evaluation of Java-based applications to existing approaches using the standard APFD metric. The results show that our technique is highly competitive.</t>
-  </si>
-  <si>
-    <t>Aitor Arrieta, Joseba Andoni Agirre, Goiuria Sagardui</t>
-  </si>
-  <si>
-    <t>GECCO '20: Proceedings of the 2020 Genetic and Evolutionary Computation Conference</t>
-  </si>
-  <si>
-    <t>Seeding strategies for multi-objective test case selection: an application on simulation-based testing</t>
-  </si>
-  <si>
-    <t>The time it takes software systems to be tested is usually long. This is often caused by the time it takes the entire test suite to be executed. To optimize this, regression test selection approaches have allowed for improvements to the cost-effectiveness of verification and validation activities in the software industry. In this area, multi-objective algorithms have played a key role in selecting the appropriate subset of test cases from the entire test suite. In this paper, we propose a set of seeding strategies for the test case selection problem that generate the initial population of multi-objective algorithms. We integrated these seeding strategies with an NSGA-II algorithm for solving the test case selection problem in the context of simulation-based testing. We evaluated the strategies with six case studies and a total of 21 fitness combinations for each case study (i.e., a total of 126 problems). Our evaluation suggests that these strategies are indeed helpful for solving the multi-objective test case selection problem. In fact, two of the proposed seeding strategies outperformed the NSGA-II algorithm without seeding population with statistical significance for 92.8 and 96% of the problems.</t>
-  </si>
-  <si>
-    <t>Alessandro Marchetto; Md. Mahfuzul Islam; Waseem Asghar; Angelo Susi; Giuseppe Scanniello</t>
-  </si>
-  <si>
-    <t>A Multi-Objective Technique to Prioritize Test Cases</t>
-  </si>
-  <si>
-    <t>While performing regression testing, an appropriate choice for test case ordering allows the tester to early discover faults in source code. To this end, test case prioritization techniques can be used. Several existing test case prioritization techniques leave out the execution cost of test cases and exploit a single objective function (e.g., code or requirements coverage). In this paper, we present a multi-objective test case prioritization technique that determines the ordering of test cases that maximize the number of discovered faults that are both technical and business critical. In other words, our new technique aims at both early discovering faults and reducing the execution cost of test cases. To this end, we automatically recover links among software artifacts (i.e., requirements specifications, test cases, and source code) and apply a metric-based approach to automatically identify critical and fault-prone portions of software artifacts, thus becoming able to give them more importance during test case prioritization. We experimentally evaluated our technique on 21 Java applications. The obtained results support our hypotheses on efficiency and effectiveness of our new technique and on the use of automatic artifacts analysis and weighting in test case prioritization.</t>
-  </si>
-  <si>
-    <t>Qi Luo, Kevin Moran, Denys Poshyvanyk</t>
+    <t>How does regression test prioritization perform in real-world software evolution?</t>
+  </si>
+  <si>
+    <t>In recent years, researchers have intensively investigated various topics in test prioritization, which aims to re-order tests to increase the rate of fault detection during regression testing. While the main research focus in test prioritization is on proposing novel prioritization techniques and evaluating on more and larger subject systems, little effort has been put on investigating the threats to validity in existing work on test prioritization. One main threat to validity is that existing work mainly evaluates prioritization techniques based on simple artificial changes on the source code and tests. For example, the changes in the source code usually include only seeded program faults, whereas the test suite is usually not augmented at all. On the contrary, in real-world software development, software systems usually undergo various changes on the source code and test suite augmentation. Therefore, it is not clear whether the conclusions drawn by existing work in test prioritization from the artificial changes are still valid for real-world software evolution. In this paper, we present the first empirical study to investigate this important threat to validity in test prioritization. We reimplemented 24 variant techniques of both the traditional and time-aware test prioritization, and investigated the impacts of software evolution on those techniques based on the version history of 8 real-world Java programs from GitHub. The results show that for both traditional and time-aware test prioritization, test suite augmentation significantly hampers their effectiveness, whereas source code changes alone do not influence their effectiveness much.</t>
+  </si>
+  <si>
+    <t>S Ji, B Li, P Zhang</t>
+  </si>
+  <si>
+    <t>IEEE Access, 2019</t>
+  </si>
+  <si>
+    <t>Test case selection for all-uses criterion-based regression testing of composite service</t>
+  </si>
+  <si>
+    <t>Composite services evolve for various reasons. Test case selection in the regression testing is an effective technique to ensure the correctness of modified versions meanwhile to reduce the cost of testing. However, few work has studied the test case selection problem based on the data flow testing criteria. In addition, there are three observable kinds of changes during the evolution, including Process change, Binding change and Interface change, which all bring impact to the data flow. To address these issues, a test case selection approach is proposed for regression testing of BPEL (Business Process Execution Language) composite service where all-uses criterion is satisfied and all the three change types are involved. BPEL composite service is modeled with a two-level model in which XCFG (eXtended Control Flow Graph) describes the behavior of BPEL process in the first level and WSDM (Web Service Description Model) depicts the interface information of composite service and partner services in the second level. Change impact analysis is performed to identify the affected definition-use pairs by comparing and analyzing two-level models of the baseline and evolved versions. And testing paths are generated to cover the affected definition-use pairs and select test cases based on the path condition analysis. Empirical result shows that the proposed approach is effective.</t>
+  </si>
+  <si>
+    <t>O Legunsen, F Hariri, A Shi, Y Lu, L Zhang, D Marinov</t>
   </si>
   <si>
     <t>FSE 2016: Proceedings of the 2016 24th ACM SIGSOFT International Symposium on Foundations of Software Engineering</t>
-  </si>
-  <si>
-    <t>A large-scale empirical comparison of static and dynamic test case prioritization techniques</t>
-  </si>
-  <si>
-    <t>The large body of existing research in Test Case Prioritization (TCP) techniques, can be broadly classified into two categories: dynamic techniques (that rely on run-time execution information) and static techniques (that operate directly on source and test code). Absent from this current body of work is a comprehensive study aimed at understanding and evaluating the static approaches and comparing them to dynamic approaches on a large set of projects.
-In this work, we perform the first extensive study aimed at empirically evaluating four static TCP techniques comparing them with state-of-research dynamic TCP techniques at different test-case granularities (e.g., method and class-level) in terms of effectiveness, efficiency and similarity of faults detected. This study was performed on 30 real-word Java programs encompassing 431 KLoC. In terms of effectiveness, we find that the static call-graph-based technique outperforms the other static techniques at test-class level, but the topic-model-based technique performs better at test-method level. In terms of efficiency, the static call-graph-based technique is also the most efficient when compared to other static techniques. When examining the similarity of faults detected for the four static techniques compared to the four dynamic ones, we find that on average, the faults uncovered by these two groups of techniques are quite dissimilar, with the top 10% of test cases agreeing on only 25% - 30% of detected faults. This prompts further research into the severity/importance of faults uncovered by these techniques, and into the potential for combining static and dynamic information for more effective approaches.</t>
-  </si>
-  <si>
-    <t>Feng Li; Jianyi Zhou; Yinzhu Li; Dan Hao; Lu Zhang</t>
-  </si>
-  <si>
-    <t>AGA: An Accelerated Greedy Additional Algorithm for Test Case Prioritization</t>
-  </si>
-  <si>
-    <t>In recent years, many test case prioritization (TCP) techniques have been proposed to speed up the process of fault detection. However, little work has taken the efficiency problem of these techniques into account. In this paper, we target the Greedy Additional (GA) algorithm, which has been widely recognized to be effective but less efficient, and try to improve its efficiency while preserving effectiveness. In our Accelerated GA (AGA) algorithm, we use some extra data structures to reduce redundant data accesses in the GA algorithm and thus the time complexity is reduced from O(m2n) to O(kmn) when n&gt;m, where m is the number of test cases, n is the number of program elements, and k is the iteration number. Moreover, we observe the impact of iteration numbers on prioritization efficiency on our dataset and propose to use a specific iteration number in the AGA algorithm to further improve the efficiency. We conducted experiments on 55 open-source subjects. In particular, we implemented each TCP algorithm with two kinds of widely-used input formats, adjacency matrix and adjacency list. Since a TCP algorithm with adjacency matrix is less efficient than the algorithm with adjacency list, the result analysis is mainly conducted based on TCP algorithms with adjacency list. The results show that AGA achieves 5.95X speedup ratio over GA on average, while it achieves the same average effectiveness as GA in terms of Average Percentage of Fault Detected (APFD). Moreover, we conducted an industrial case study on 22 subjects, collected from Baidu, and find that the average speedup ratio of AGA over GA is 44.27X, which indicates the practical usage of AGA in real-world scenarios.</t>
-  </si>
-  <si>
-    <t>Ahmadreza Saboor Yaraghi; Mojtaba Bagherzadeh; Nafiseh Kahani; Lionel C. Briand</t>
-  </si>
-  <si>
-    <t>Scalable and Accurate Test Case Prioritization in Continuous Integration Contexts</t>
-  </si>
-  <si>
-    <t>Continuous Integration (CI) requires efficient regression testing to ensure software quality without significantly delaying its CI builds. This warrants the need for techniques to reduce regression testing time, such as Test Case Prioritization (TCP) techniques that prioritize the execution of test cases to detect faults as early as possible. Many recent TCP studies employ various Machine Learning (ML) techniques to deal with the dynamic and complex nature of CI. However, most of them use a limited number of features for training ML models and evaluate the models on subjects for which the application of TCP makes little practical sense, due to their small regression testing time and low number of failed builds. In this work, we first define, at a conceptual level, a data model that captures data sources and their relations in a typical CI environment. Second, based on this data model, we define a comprehensive set of features that covers all features previously used by related studies. Third, we develop methods and tools to collect the defined features for 25 open-source software systems with enough failed builds and whose regression testing takes at least five minutes. Fourth, relying on the collected dataset containing a comprehensive feature set, we answer four research questions concerning data collection time, the effectiveness of ML-based TCP, the impact of the features on effectiveness, the decay of ML-based TCP models over time, and the trade-off between data collection time and the effectiveness of ML-based TCP techniques.</t>
-  </si>
-  <si>
-    <t>MA Khan, A Azim, R Liscano, K Smith, YK Chang, Q Tauseef, G Seferi</t>
-  </si>
-  <si>
-    <t>Proceedings of the 5th ACM/IEEE International Conference on Automation of Software Test (AST ‘24)</t>
-  </si>
-  <si>
-    <t>Machine learning-based test case prioritization using hyperparameter optimization</t>
-  </si>
-  <si>
-    <t>Continuous integration pipelines execute extensive automated test suites to validate new software builds. In this fast-paced development environment, delivering timely testing results to developers is critical to ensuring software quality. Test case prioritization (TCP) emerges as a pivotal solution, enabling the prioritization of fault-prone test cases for immediate attention. Recent advancements in machine learning have showcased promising results in TCP, offering the potential to revolutionize how we optimize testing workflows. Hyperparameter tuning plays a crucial role in enhancing the performance of ML models. However, there needs to be more work investigating the effects of hyperparameter tuning on TCP. Therefore, we explore how optimized hyperparameters influence the performance of various ML classifiers, focusing on the Average Percentage of Faults Detected (APFD) metric. Through empirical analysis of ten real-world, large-scale, diverse datasets, we conduct a grid search-based tuning with 885 hyperparameter combinations for four machine learning models. Our results provide model-specific insights and demonstrate an average 15% improvement in model performance with hyperparameter tuning compared to default settings. We further explain how hyperparameter tuning improves precision (max = 1), recall (max = 0.9633), F1-score (max = 0.9662), and influences APFD value (max = 0.9835), indicating a direct connection between tuning and prioritization performance. Hence, this study underscores the importance of hyperparameter tuning in optimizing failure prediction models and their direct impact on prioritization performance.</t>
-  </si>
-  <si>
-    <t>D. Di Nucci, A. Panichella, A. Zaidman and A. De Lucia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search-Based Software Engineering </t>
-  </si>
-  <si>
-    <t>Hypervolume-Based Search for Test Case Prioritization</t>
-  </si>
-  <si>
-    <t>Test case prioritization (TCP) is aimed at finding an ideal ordering for executing the available test cases to reveal faults earlier. To solve this problem greedy algorithms and meta-heuristics have been widely investigated, but in most cases there is no statistically significant difference between them in terms of effectiveness. The fitness function used to guide meta-heuristics condenses the cumulative coverage scores achieved by a test case ordering using the Area Under Curve (AUC) metric. In this paper we notice that the AUC metric represents a simplified version of the hypervolume metric used in many objective optimization and we propose HGA, a Hypervolume-based Genetic Algorithm, to solve the TCP problem when using multiple test criteria. The results shows that HGA is more cost-effective than the additional greedy algorithm on large systems and on average requires 36 % of the execution time required by the additional greedy algorithm.</t>
-  </si>
-  <si>
-    <t>B Jiang, Y Wu, Y Zhang, Z Zhang, WK Chan</t>
-  </si>
-  <si>
-    <t>IEEE Annual International Computer Software and Applications Conference (COMPSAC)</t>
-  </si>
-  <si>
-    <t>ReTestDroid: towards safer regression test selection for android application</t>
-  </si>
-  <si>
-    <t>Mobile applications are widely used in our daily life and Android is the most popular open source mobile operating system. Because mobile applications update frequently, it is important developers to perform regression testing to ensure their quality. Modeling the control flow of an android application based on the activity lifecycle model only is imprecise for regression testing. Because many Android applications use asynchronous tasks, fragments, and native code frequently, which must be considered during change impact analysis. Otherwise, regression test selection techniques may miss some failure-revealing test cases, compromising the safety of these techniques. In this work, we propose a novel approach to model asynchronous task invocations, fragment-based activity lifecycle, and native code within the control flow graph of an Android application. Furthermore, we designed a regression test selection tool ReTestDroid based on our graph model. Our experiments on five real-life Android applications showed that our approach could enable much safer regression test selection while significantly saving regression-testing time.</t>
-  </si>
-  <si>
-    <t>Y Lu, Y Lou, S Cheng, L Zhang, D Hao, Y Zhou, L Zhang</t>
-  </si>
-  <si>
-    <t>How does regression test prioritization perform in real-world software evolution?</t>
-  </si>
-  <si>
-    <t>In recent years, researchers have intensively investigated various topics in test prioritization, which aims to re-order tests to increase the rate of fault detection during regression testing. While the main research focus in test prioritization is on proposing novel prioritization techniques and evaluating on more and larger subject systems, little effort has been put on investigating the threats to validity in existing work on test prioritization. One main threat to validity is that existing work mainly evaluates prioritization techniques based on simple artificial changes on the source code and tests. For example, the changes in the source code usually include only seeded program faults, whereas the test suite is usually not augmented at all. On the contrary, in real-world software development, software systems usually undergo various changes on the source code and test suite augmentation. Therefore, it is not clear whether the conclusions drawn by existing work in test prioritization from the artificial changes are still valid for real-world software evolution. In this paper, we present the first empirical study to investigate this important threat to validity in test prioritization. We reimplemented 24 variant techniques of both the traditional and time-aware test prioritization, and investigated the impacts of software evolution on those techniques based on the version history of 8 real-world Java programs from GitHub. The results show that for both traditional and time-aware test prioritization, test suite augmentation significantly hampers their effectiveness, whereas source code changes alone do not influence their effectiveness much.</t>
-  </si>
-  <si>
-    <t>F Altiero, A Corazza, S Di Martino, A Peron, LLL Starace</t>
-  </si>
-  <si>
-    <t>IFIP International Conference on Testing Software and Systems, 2020</t>
-  </si>
-  <si>
-    <t>Inspecting code churns to prioritize test cases</t>
-  </si>
-  <si>
-    <t>Within the context of software evolution, due to time-to-market pressure, it is not uncommon that a company has not enough time and/or resources to re-execute the whole test suite on the new software version, to check for non-regression. To face this issue, many Regression Test Prioritization techniques have been proposed, aimed at ranking test cases in a way that tests more likely to expose faults have higher priority. Some of these techniques exploit code churn metrics, i.e. some quantification of code changes between two subsequent versions of a software artifact, which have been proven to be effective indicators of defect-prone components. In this paper, we first present three new Regression Test Prioritization strategies, based on a novel code churn metric, that we empirically assessed on an open source software system. Results highlighted that the proposal is promising, but that it might be further improved by a more detailed analysis on the nature of the changes introduced between two subsequent code versions. To this aim, in this paper we also sketch a more refined approach we are currently investigating, that quantifies changes in a code base at a finer grained level. Intuitively, we seek to prioritize tests that stress more fault-prone changes (e.g., structural changes in the control flow), w.r.t. those that are less likely to introduce errors (e.g., the renaming of a variable). To do so, we propose the exploitation of the Abstract Syntax Tree (AST) representation of source code, and to quantify differences between ASTs by means of specifically designed Tree Kernel functions, a type of similarity measure for tree-based data structures, which have shown to be very effective in other domains, thanks to their customizability.</t>
-  </si>
-  <si>
-    <t>B Suri, S Singhal</t>
-  </si>
-  <si>
-    <t>International Journal of System Assurance Engineering and Management, 2015</t>
-  </si>
-  <si>
-    <t>Understanding the effect of time-constraint bounded novel technique for regression test selection and prioritization</t>
-  </si>
-  <si>
-    <t>It is the demand of our ever-advancing IT industry that software be updated in order to continue its use. Such a modification should not introduce any unwanted new faults in the system. For this, the existing test suite needs to be rerun, often called as regression testing. The main challenge during the regression testing process is not to exceed the desired time and budge deadlines. As a consequence various techniques such as test case selection, minimization and prioritization are used. This paper proposes and analyzes the effect of time constraint on an ant colony optimization based technique for Regression test selection and prioritization. It has been found that with an increase in the applied time constraint, there are more chances to get an optimum selected and prioritized test suite. Also it was found that the complexity of our algorithm depends on the size of the test suite and the applied time constraint and is independent of the number of faults being mutated or any other input variable.</t>
-  </si>
-  <si>
-    <t>S Ji, B Li, P Zhang</t>
-  </si>
-  <si>
-    <t>IEEE Access, 2019</t>
-  </si>
-  <si>
-    <t>Test case selection for all-uses criterion-based regression testing of composite service</t>
-  </si>
-  <si>
-    <t>Composite services evolve for various reasons. Test case selection in the regression testing is an effective technique to ensure the correctness of modified versions meanwhile to reduce the cost of testing. However, few work has studied the test case selection problem based on the data flow testing criteria. In addition, there are three observable kinds of changes during the evolution, including Process change, Binding change and Interface change, which all bring impact to the data flow. To address these issues, a test case selection approach is proposed for regression testing of BPEL (Business Process Execution Language) composite service where all-uses criterion is satisfied and all the three change types are involved. BPEL composite service is modeled with a two-level model in which XCFG (eXtended Control Flow Graph) describes the behavior of BPEL process in the first level and WSDM (Web Service Description Model) depicts the interface information of composite service and partner services in the second level. Change impact analysis is performed to identify the affected definition-use pairs by comparing and analyzing two-level models of the baseline and evolved versions. And testing paths are generated to cover the affected definition-use pairs and select test cases based on the path condition analysis. Empirical result shows that the proposed approach is effective.</t>
-  </si>
-  <si>
-    <t>O Legunsen, F Hariri, A Shi, Y Lu, L Zhang, D Marinov</t>
   </si>
   <si>
     <t>An extensive study of static regression test selection in modern software evolution</t>
@@ -379,6 +264,9 @@
     <t>Shouvick Mondal, Rupesh Nasre</t>
   </si>
   <si>
+    <t>Journal of Systems and Software</t>
+  </si>
+  <si>
     <t>Hansie: Hybrid and consensus regression test prioritization</t>
   </si>
   <si>
@@ -409,6 +297,9 @@
     <t>Software quality is becoming a momentous challenge in software engineering processes, and software testing has a pivotal role in its measurements. Nature-inspired metaheuristic methods play an essential role in software testing, in which various studies have been conducted in this field; however, due to a lack of wide-ranging papers reviewing these methods, conducting a comprehensive systematic review to examine an array of crucial mechanisms in this field has become a necessity. This study aims to present a detailed analysis and taxonomically classifies the metaheuristic methods inspired by nature. This paper compromises a systematic literature review of 65 chosen studies published between 2015 and 2022. Genetic algorithm-based, hybrid, ant colony optimization-based, cuckoo search-based, firefly algorithm-based, artificial bee colony-based, and other metaheuristic methods constitute this systematic study’s stratification. Evaluation methods, applied tools, merits, and demerits of each reviewed article are investigated. Additionally, future directions and open issues are addressed. This conducted paper not only expounds on software testing strengths, open issues, and future works, but also recognizes the quest for optimizing the insufficient metrics in software testing, such as mutation score, complexity, and scalability, which would be the propulsion of the testing process if consummated.</t>
   </si>
   <si>
+    <t>SR</t>
+  </si>
+  <si>
     <t>J Chen, Y Gu, S Cai, H Chen, J Chen</t>
   </si>
   <si>
@@ -421,30 +312,6 @@
     <t>Regression testing is an essential and expensive process in software testing. However, there may be insufficient resources for the execution of all test cases during regression testing. Test case prioritization (TCP) techniques improve the efficiency of regression testing by adjusting the test case execution sequence. Traditional TCP techniques usually rely on the historical execution information of the software under test for more efficient results. String distance‐based TCP (SD‐TCP) avoids these limitations; it uses only the textual difference information of the test cases themselves for prioritization. However, the time overhead on the sorting process of this method is not ideal, and the extreme test case inputs have an impact on the stability of the method. To address these problems, we propose a novel test case prioritization strategy, it first classifies the test cases more finely using the K‐medoids algorithm and then transforms the set into subsequences and improves the early diversity by greedy sorting within clusters. Finally, the test cases are selected through a polling strategy to compose the execution sequence. Extensive experimental results demonstrate that the proposed approach outperforms SD‐TCP in better time efficiency on test case prioritization; it also has a higher average percentage of fault detected (APFD) value than random prioritization (RP) and SD‐TCP.</t>
   </si>
   <si>
-    <t>MAB Ariffin, MM Rejab, R Ibrahim, SB Azmi, NAM Sabri, NA Sahadun, SS Nathan</t>
-  </si>
-  <si>
-    <t>2024 IEEE 22nd Student Conference on Research and Development (SCOReD), 2024</t>
-  </si>
-  <si>
-    <t>Efficient Test Case Prioritization Using the Rat Swarm Optimizer Algorithm</t>
-  </si>
-  <si>
-    <t>Software testing is a critical phase in software development to ensure the reliability and quality of software systems. With the increasing complexity of software applications, the number of test cases can grow significantly, posing challenges in terms of execution time and resource utilization. Test Case Prioritization (TCP) has emerged as a crucial technique to optimize the order of test case execution, aiming to detect defects early in the testing process. This paper presents a novel approach to Test Case Prioritization by harnessing the power of Rat Swarm Optimization (RSO), an algorithm inspired by the collective behavior of rat colonies. Experimental results demonstrate the efficacy of our approach compared to another algorithm. This study evaluates the performance of the proposed method using the execution time taken and compared it with the others algorithm like Ant Colony Optimization (ACO), Artificial Bee Colony (ABC) algorithm, and Firefly algorithm. The results indicate that the Rat Swarm Optimizer (RSO) algorithm is notably more efficient in terms of execution time compared to the other tested algorithms. The results highlight the potential of RSO for applications requiring rapid test case prioritization, where minimizing execution time is critical. This paper underscores the potential of RSO as a viable and innovative solution for Test Case Prioritization, offering software developers and testers a valuable tool for enhancing the efficiency and effectiveness of software testing processes.</t>
-  </si>
-  <si>
-    <t>R Dhiman, V Chopra</t>
-  </si>
-  <si>
-    <t>International Conference on Information and Computer Technologies (ICICT)</t>
-  </si>
-  <si>
-    <t>Novel approach for test case prioritization using ACO algorithm</t>
-  </si>
-  <si>
-    <t>Regression testing is used to retest the component of a system that verifies that after modifications defects are removed from the in effected software. Automation tools are required for these types of testing. This work is based on manual slicing and automated slicing for test case prioritization to detect maximum number of faults from the project in which some changes are done for the new version release. The slicing is the technique which will divide the whole project function wise and detect associated functions. To test the performance of proposed and existing algorithm MATLAB is being used by considering the dataset of ten projects. Each project has seven functions and four numbers of changes are defined for the regression testing. In the simulation it is being analyzed that fault detection rate is increased and execution time is reduced with the implementation of automated test case prioritization as compared to manual test case prioritization in regression testing.</t>
-  </si>
-  <si>
     <t>ZC Demir, Ş Emrah Amrahov</t>
   </si>
   <si>
@@ -457,18 +324,6 @@
     <t>In this study, we consider test case prioritization (TCP) problem for regression testing. Regression tests are used to ensure that software updates do not affect other software functionality. In the process of regression tests, the tests previously used for software testing are run again. However, running all existing tests is a costly process as it will cause time and labor loss. Therefore, an optimization can be made by giving priority to the tests according to certain criteria and running the tests with high priority values. This reduces the burden of unnecessary tests and regression tests reach their goals more quickly. In this study, we show that TCP problem is equivalent to the problem of finding dominating sets for the bipartite graphs. We propose 3 algorithms based on dominating sets and then we compare experimental results of the proposed algorithms with the results of the existing algorithms.</t>
   </si>
   <si>
-    <t>A Morozov, K Ding, T Chen, K Janschek</t>
-  </si>
-  <si>
-    <t>International Conference on Software Analysis, Testing and Evolution (SATE)</t>
-  </si>
-  <si>
-    <t>Test Suite Prioritization for Efficient Regression Testing of Model-Based Automotive Software</t>
-  </si>
-  <si>
-    <t>Up to 80% of the automotive software can be generated from models. MATLAB Simulink is a common tool for creation of complex combinations of block diagrams and state machines, automated generation of executable code, and its deployment on a target ECU. The automotive safety standards require extensive testing of the developed models. Regression testing should be undertaken every time a model is updated to ensure that the modifications do not introduce new faults into the previously validated model. A common, time-consuming way is to rerun an entire test suite after even minor changes. This paper introduces a new method for automatic prioritization of test cases. The method is based on two principles: (i) A test case should stimulate an error in an updated block and (ii) the stimulated error should propagate to the place where it can be detected. The proposed method includes the evaluation of input vectors that are provided to updated blocks by each test case and a Markov-based stochastic error propagation analysis of the model. The application of the method is demonstrated with a Simulink model of a gearbox and a test-suite, automatically generated with the Reactis Tester.</t>
-  </si>
-  <si>
     <t>M Hasnain, MF Pasha, I Ghani, SR Jeong</t>
   </si>
   <si>
@@ -481,6 +336,9 @@
     <t>Regression testing, as an important part of the software life cycle, ensures the validity of modified software. Researchers’ focus of this research is on functional requirement-based ‘Test Case Prioritization’ (TCP) because requirement specifications help keep the software correctness on customers’ perceived priorities. This research study is aimed to investigate requirement-based TCP approaches, regression testing aspects, applications regarding the validation of proposed TCP approaches, systems’ size under regression testing, test case size and relevant revealed faults, TCP related issues, TCP issues and types of primary studies. Researchers of this paper examined research publications, which have been published between 2009 and 2019, within the seven most significant digital repositories. These repositories are popular, and mostly used for searching papers on topics in software engineering domain. We have performed a meticulous screening of research studies and selected 35 research papers through which to investigate the answers to the proposed research questions. The final outcome of this paper showed that functional requirement-based TCP approaches have been widely covered in primary studies. The results indicated that fault size and the number of test cases are mostly discussed as regression testing aspects within primary studies. In this review paper, it has been identified that iTrust system is widely examined by researchers in primary studies. This paper’s conclusion indicated that most of the primary studies have been demonstrated in the real-world settings by respective researchers of focused primary studies. The findings of this “Systematic Literature Review” (SLR) reveal some suggestions to be undertaken in future research works, such as improving the software quality, and conducting evaluations of larger systems.</t>
   </si>
   <si>
+    <t>SLR</t>
+  </si>
+  <si>
     <t>Muhammad Khatibsyarbini; Mohd Adham Isa; Dayang N. A. Jawawi; Muhammad Luqman Mohd Shafie; Wan Mohd Nasir Wan-Kadir; Haza Nuzly Abdull Hamed</t>
   </si>
   <si>
@@ -493,18 +351,6 @@
     <t>Software quality can be assured by passing the process of software testing. However, software testing process involve many phases which lead to more resources and time consumption. To reduce these downsides, one of the approaches is to adopt test case prioritization (TCP) where numerous works has indicated that TCP do improve the overall software testing performance. TCP does have several kinds of techniques which have their own strengths and weaknesses. As for this review paper, the main objective of this paper is to examine deeper on machine learning (ML) techniques based on research questions created. The research method for this paper was designed in parallel with the research questions. Consequently, 110 primary studies were selected where, 58 were journal articles, 50 were conference papers and 2 considered as others articles. For overall result, it can be said that ML techniques in TCP has trending in recent years yet some improvements are certainly welcomed. There are multiple ML techniques available, in which each technique has specified potential values, advantages, and limitation. It is notable that ML techniques has been considerably discussed in TCP approach for software testing.</t>
   </si>
   <si>
-    <t>A Singh</t>
-  </si>
-  <si>
-    <t>International conference of Electronics, Communication and Aerospace Technology (ICECA)</t>
-  </si>
-  <si>
-    <t>Multi-objective test case minimization using evolutionary algorithms: A review</t>
-  </si>
-  <si>
-    <t>Software testing is one of the primal phase in various software development lifecycle models and consumes approximately 70% of development time and 40% cost of the overall budget. Nowadays automated testing tools along with different meta-heuristic algorithms which work similarly as simple testing techniques but they significantly outperforms when the complexity of the program is high are used in software testing phase to reduce the effort and time to test various program codes. Recent studies shows that various Evolutionary Algorithms (EA) like Artificial Immune System (AIS), Particle Swarm Optimization (PSO), Simulated annealing, Artificial Bee Colony (ABC), Cuckoo Search Algorithm (CSA), Ant colony optimization (ACO) are being functionalized in the field of Software Engineering to obtain optimal solutions. This review paper demonstrates the minimization of test cases using these evolutionary algorithms.</t>
-  </si>
-  <si>
     <t>Hieu Huynh, Nhu Pham, Tien N. Nguyen, Vu Nguyen</t>
   </si>
   <si>
@@ -541,18 +387,6 @@
     <t>To survive in competitive marketplaces, most organizations have adopted agile methodologies to facilitate continuous integration and faster application delivery and rely on regression testing during application development to validate the quality and reliability of the software after changes have been made. Consequently, for large projects with cost and time constraints, it is extremely difficult to determine which test cases to run at the end of each release. In this paper, a test case prioritization and selection approach is proposed to improve the quality of releases. From existing literature, we analyzed prevailing problems and proposed solution relevant to regression testing in agile practices. The proposed approach is based on two phases. First, test cases are prioritized by clustering those test cases that frequently change. In case of a tie, test cases are prioritized based on their respective failure frequencies and coverage criteria. Second, test cases with a higher frequency of failure or coverage criteria are selected. The proposed technique was validated by an empirical study on three industrial subjects. The results show that the method successfully selects an optimal test suite and increases the fault detection rate (i.e., more than 90% in the case of proposed technique and less than 50% in other techniques), which reduces the number of irrelevant test cases and avoids detecting duplicate faults. The results of evaluation metrics illustrate that the proposed technique significantly outperform (i.e., between 91 and 97%) as compared to other existing regression testing techniques (i.e., between 52 and 68%). Therefore, our model enhances the test case prioritization and selection with the ability for earlier and high fault detection. Thus, pruning out irrelevant test cases and redundant faults and enhancing the regression testing process for agile applications.</t>
   </si>
   <si>
-    <t>Neha Gupta; Arun Sharma; Manoj Kumar Pachariya</t>
-  </si>
-  <si>
-    <t>2019 International Conference on Issues and Challenges in Intelligent Computing Techniques (ICICT)</t>
-  </si>
-  <si>
-    <t>Analysis of MORTO:Multi-objective Regression test optimization</t>
-  </si>
-  <si>
-    <t>Whenever a change is done in software, regression testing is done to check that a recent change in code has not created any unwanted defects in the system. As size of regression test suite is very large, optimization algorithms help in selecting, minimizing and prioritizing test suites. Main aim is maximize fault detection ability with less number of test cases. Optimization techniques of various types are available but Multiobjective algorithms are the best choice to use as testing is dependent on many adequacy criteria or surrogates. In this paper, authors have carried out study on research papers where multi-objective algorithms are used in regression testing. Then comparison of performance of multi-objective algorithms is done to identify the best suitable multi-objective algorithm for regression testing.</t>
-  </si>
-  <si>
     <t>S Biswas, A Bansal, P Mitra, R Mall</t>
   </si>
   <si>
@@ -682,15 +516,6 @@
     <t>Regression testing is a testing method conducted to ensure that improvements do not affect the software’s current behavior. Test cases play a significant role in software testing activities since it detects faults in the software. The selection of test cases for execution based on the priority is a considerable decision-making step since testing needs to be carried out with limited computing resources like cost, effort, and time. Prioritized selection of test cases involves considering specific test case parameters or criteria; prioritizing test cases can be conceived as a multi-criteria decision-making problem. In this paper, using the Analytic Hierarchy Process (AHP) method, we suggest an approach for prioritizing the selection of the test cases. AHP provides a rational framework for structuring a decision-making problem. It is used to determine the priority of a set of criteria and to calculate the consistency ratio of those criteria using pair-wise comparisons of various measures. Using a new priority regression test algorithm proposed in this study, regression test prioritization is transformed into a multi-criteria decision-making problem. The suggested strategy has a higher Average Percentage of Faults Detected (APFD) value when many determinants are taken into account. The experimental results indicate that our proposed prioritization approach would improve the probability that faults will be detected early and enhance performance compared to other prioritization strategies.</t>
   </si>
   <si>
-    <t xml:space="preserve">Raja Marappan &amp; Saraswatikaniga Raja </t>
-  </si>
-  <si>
-    <t>Recent Trends in Regression Testing: Modeling and Analyzing the Critiques in Selection, Optimization, and Prioritization</t>
-  </si>
-  <si>
-    <t>Nowadays, the software industry uses soft computing techniques to perform various tests and research to keep the software of better quality for customers or end users. Regression testing is needed to gain confidential insight into the software so that its performance is not affected. This testing is executed after updating the source code to ensure no new errors will be reported from the updates. As the software evolves, the test suites also increase in size, and hence, the computational cost is increased for the test suites execution. This research analyzes the recent trends in regression testing as different methods are developed to optimize the test suite using selection, minimization, and prioritization. The test case selection determines the suitable test cases for the necessary updates. Test suite optimization eliminates unnecessary or redundant test cases and reduces the total runs of test cases. Sequencing the test cases in an order is necessary to optimize the early detection of faults. This research analyzes the modeling and critiques in selection, minimization, and prioritization of recent techniques.</t>
-  </si>
-  <si>
     <t>Israr Ghani; Wan Mohd Nasir Wan Kadir; Adila Firdaus Arbain; Imran Ghani</t>
   </si>
   <si>
@@ -703,70 +528,22 @@
     <t>Regression testing is carried out to ensure that changes or enhancements are not impacting previous working software. Deciding how much retesting is required after modifications, bug fixes or before product deployments are difficult. Therefore, Test Case Selection (TCS) select the satisfactory subset of modified test cases from already executed test suites. The testing primary concerns in TCS for regression testing are efficiency (i.e., coverage, fault detection ability, redundancy) and time. The first challenge in TCS concerns the efficiency of multi-objective test case selection. The second challenge is to improve the execution time to detect the changes in a test suite, which makes it impractical to use these efficiency measures as a single goal for TCS. To overcome these challenges, there is a need to introduce an efficient detection-based multi-objective framework to improve the Time and efficiency of TCS. A multi-objective advanced and efficient regression test case selection (ARTeCS) framework is devised to improve the time performance and efficiency of a given TCS objective relative to the other TCS approaches. An algorithm to detect the changes in test cases using multiple TCS objectives. This comparison found that the enhanced ARTeCS algorithm improves redundancy efficiency by 44.02%. The selection technique showed ARTeCS improved the modified change detection by 43.00%, whereas the Hybrid Whale Optimization Algorithm (HWOA) stated 23% and ACO showed 33% only for selected test cases. Regarding average for fault detection, ACO scores 21%, HWOA scores 11%, and ARTeCS scores 31.08% with total execution times of 12, 21 and 09 seconds, respectively. In conclusion, the multiple-objective ARTeCS framework with four test suite selection parameters is more efficient than the existing multi-objective selection framework.</t>
   </si>
   <si>
+    <t>Christoph Laaber; Tao Yue; Shaukat Ali</t>
+  </si>
+  <si>
     <t>Evaluating Search-Based Software Microbenchmark Prioritization</t>
   </si>
   <si>
-    <t>Christoph Laaber; Tao Yue; Shaukat Ali</t>
-  </si>
-  <si>
     <t>Ensuring that software performance does not degrade after a code change is paramount. A solution is to regularly execute software microbenchmarks, a performance testing technique similar to (functional) unit tests, which, however, often becomes infeasible due to extensive runtimes. To address that challenge, research has investigated regression testing techniques, such as test case prioritization (TCP), which reorder the execution within a microbenchmark suite to detect larger performance changes sooner. Such techniques are either designed for unit tests and perform sub-par on microbenchmarks or require complex performance models, drastically reducing their potential application. In this paper, we empirically evaluate single- and multi-objective search-based microbenchmark prioritization techniques to understand whether they are more effective and efficient than greedy, coverage-based techniques. For this, we devise three search objectives, i.e., coverage to maximize, coverage overlap to minimize, and historical performance change detection to maximize. We find that search algorithms (SAs) are only competitive with but do not outperform the best greedy, coverage-based baselines. However, a simple greedy technique utilizing solely the performance change history (without coverage information) is equally or more effective than the best coverage-based techniques while being considerably more efficient, with a runtime overhead of less than 1%. These results show that simple, non-coverage-based techniques are a better fit for microbenchmarks than complex coverage-based techniques.</t>
   </si>
   <si>
-    <t>Prioritizing versions for performance regression testing: The Pharo case</t>
-  </si>
-  <si>
-    <t>Juan Pablo Sandoval Alcocer, Alexandre Bergel, Marco Tulio Valente</t>
-  </si>
-  <si>
-    <t>Science of Computer Programming</t>
-  </si>
-  <si>
-    <t>Context
-Software performance may suffer regressions caused by source code changes. Measuring performance at each new software version is useful for early detection of performance regressions. However, systematically running benchmarks is often impractical (e.g., long running execution, prioritizing functional correctness over non-functional).
-Objective
-In this article, we propose Horizontal Profiling, a sampling technique to predict when a new revision may cause a regression by analyzing the source code and using run-time information of a previous version. The goal of Horizontal Profiling is to reduce the performance testing overhead by benchmarking just software versions that contain costly source code changes.
-Method
-We present an evaluation in which we apply Horizontal Profiling to identify performance regressions of 17 software projects written in the Pharo programming language, totaling 1,288 software versions.
-Results
-Horizontal Profiling detects more than 80% of the regressions by benchmarking less than 20% of the versions. In addition, our experiments show that Horizontal Profiling has better precision and executes the benchmarks in less versions that the state of the art tools, under our benchmarks.
-Conclusions
-We conclude that by adequately characterizing the run-time information of a previous version, it is possible to determine if a new version is likely to introduce a performance regression or not. As a consequence, a significant fraction of the performance regressions are identified by benchmarking only a small fraction of the software versions.</t>
+    <t xml:space="preserve">Bo Jiang,W.K. Chan </t>
   </si>
   <si>
     <t>Input-based adaptive randomized test case prioritization: A local beam search approach</t>
   </si>
   <si>
-    <t xml:space="preserve">Bo Jiang,W.K. Chan </t>
-  </si>
-  <si>
     <t>Test case prioritization assigns the execution priorities of the test cases in a given test suite. Many existing test case prioritization techniques assume the full-fledged availability of code coverage data, fault history, or test specification, which are seldom well-maintained in real-world software development projects. This paper proposes a novel family of input-based local-beam-search adaptive-randomized techniques. They make adaptive tree-based randomized explorations with a randomized candidate test set strategy to even out the search space explorations among the branches of the exploration trees constructed by the test inputs in the test suite. We report a validation experiment on a suite of four medium-size benchmarks. The results show that our techniques achieve either higher APFD values than or the same mean APFD values as the existing code-coverage-based greedy or search-based prioritization techniques, including Genetic, Greedy and ART, in both our controlled experiment and case study. Our techniques are also significantly more efficient than the Genetic and Greedy, but are less efficient than ART.</t>
-  </si>
-  <si>
-    <t>RQ1.1</t>
-  </si>
-  <si>
-    <t>RQ1.2</t>
-  </si>
-  <si>
-    <t>RQ1.3</t>
-  </si>
-  <si>
-    <t>RQ2.1</t>
-  </si>
-  <si>
-    <t>RQ2.2</t>
-  </si>
-  <si>
-    <t>RQ1.3a</t>
-  </si>
-  <si>
-    <t>RQ2.3</t>
-  </si>
-  <si>
-    <t>RQ3.1</t>
-  </si>
-  <si>
-    <t>RQ3.2</t>
   </si>
 </sst>
 </file>
@@ -1143,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW51"/>
+  <dimension ref="A1:AW32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1273,1015 +1050,891 @@
         <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>233</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>234</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>237</v>
+        <v>43</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>235</v>
+        <v>44</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>238</v>
+        <v>46</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>239</v>
+        <v>47</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>240</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AN2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F3">
-        <v>2024</v>
+        <v>2018</v>
       </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="AN3" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F4">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AN4" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F5">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="J5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AN5" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F6">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AN6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F7">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="J7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="AN7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F8">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="J8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AN8" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F9">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AN9" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F10">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AN10" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F11">
         <v>2024</v>
       </c>
       <c r="J11" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="AN11" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F12">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="J12" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AN12" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F13">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="J13" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="AN13" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F14">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="J14" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="AN14" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="F15">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="J15" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="AN15" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F16">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="J16" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="AN16" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F17">
         <v>2019</v>
       </c>
       <c r="J17" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="AN17" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F18">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="J18" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="AN18" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F19">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="J19" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AN19" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="F20">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J20" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="AN20" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F21">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="J21" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="AN21" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="F22">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="J22" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="AN22" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F23">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="J23" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="AN23" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E24" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="F24">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="J24" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="AN24" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="F25">
         <v>2019</v>
       </c>
       <c r="J25" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="AN25" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D26" t="s">
         <v>137</v>
       </c>
       <c r="E26" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="F26">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J26" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="AN26" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E27" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F27">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="J27" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="AN27" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D28" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="E28" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F28">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="J28" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="AN28" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D29" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="E29" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="F29">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="J29" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="AN29" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="3:40" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="D30" t="s">
-        <v>153</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F30">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="J30" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="AN30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>156</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C31" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D31" t="s">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="F31">
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="J31" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="AN31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>160</v>
-      </c>
-      <c r="D32" t="s">
-        <v>161</v>
-      </c>
-      <c r="E32" t="s">
-        <v>162</v>
-      </c>
-      <c r="F32">
-        <v>2021</v>
-      </c>
-      <c r="J32" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>164</v>
-      </c>
-      <c r="D33" t="s">
-        <v>165</v>
-      </c>
-      <c r="E33" t="s">
-        <v>166</v>
-      </c>
-      <c r="F33">
-        <v>2019</v>
-      </c>
-      <c r="J33" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>168</v>
-      </c>
-      <c r="D34" t="s">
-        <v>169</v>
-      </c>
-      <c r="E34" t="s">
-        <v>170</v>
-      </c>
-      <c r="F34">
-        <v>2019</v>
-      </c>
-      <c r="J34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>172</v>
-      </c>
-      <c r="D35" t="s">
-        <v>173</v>
-      </c>
-      <c r="E35" t="s">
-        <v>174</v>
-      </c>
-      <c r="F35">
-        <v>2022</v>
-      </c>
-      <c r="J35" t="s">
-        <v>175</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>176</v>
-      </c>
-      <c r="D36" t="s">
-        <v>177</v>
-      </c>
-      <c r="E36" t="s">
-        <v>178</v>
-      </c>
-      <c r="F36">
-        <v>2022</v>
-      </c>
-      <c r="J36" t="s">
-        <v>179</v>
-      </c>
-      <c r="AN36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>180</v>
-      </c>
-      <c r="D37" t="s">
-        <v>181</v>
-      </c>
-      <c r="E37" t="s">
-        <v>182</v>
-      </c>
-      <c r="F37">
-        <v>2022</v>
-      </c>
-      <c r="J37" t="s">
-        <v>183</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>184</v>
-      </c>
-      <c r="D38" t="s">
-        <v>185</v>
-      </c>
-      <c r="E38" t="s">
-        <v>186</v>
-      </c>
-      <c r="F38">
-        <v>2023</v>
-      </c>
-      <c r="J38" t="s">
-        <v>187</v>
-      </c>
-      <c r="AN38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>188</v>
-      </c>
-      <c r="D39" t="s">
-        <v>189</v>
-      </c>
-      <c r="E39" t="s">
-        <v>190</v>
-      </c>
-      <c r="F39">
-        <v>2022</v>
-      </c>
-      <c r="J39" t="s">
-        <v>191</v>
-      </c>
-      <c r="AN39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>192</v>
-      </c>
-      <c r="D40" t="s">
-        <v>193</v>
-      </c>
-      <c r="E40" t="s">
-        <v>194</v>
-      </c>
-      <c r="F40">
-        <v>2023</v>
-      </c>
-      <c r="J40" t="s">
-        <v>195</v>
-      </c>
-      <c r="AN40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>196</v>
-      </c>
-      <c r="D41" t="s">
-        <v>197</v>
-      </c>
-      <c r="E41" t="s">
-        <v>198</v>
-      </c>
-      <c r="F41">
-        <v>2023</v>
-      </c>
-      <c r="J41" t="s">
-        <v>199</v>
-      </c>
-      <c r="AN41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>200</v>
-      </c>
-      <c r="D42" t="s">
-        <v>201</v>
-      </c>
-      <c r="E42" t="s">
-        <v>202</v>
-      </c>
-      <c r="F42">
-        <v>2019</v>
-      </c>
-      <c r="J42" t="s">
-        <v>203</v>
-      </c>
-      <c r="AN42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
-        <v>204</v>
-      </c>
-      <c r="D43" t="s">
-        <v>193</v>
-      </c>
-      <c r="E43" t="s">
-        <v>205</v>
-      </c>
-      <c r="F43">
-        <v>2023</v>
-      </c>
-      <c r="J43" t="s">
-        <v>206</v>
-      </c>
-      <c r="AN43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
-        <v>207</v>
-      </c>
-      <c r="D44" t="s">
-        <v>208</v>
-      </c>
-      <c r="E44" t="s">
-        <v>209</v>
-      </c>
-      <c r="F44">
-        <v>2021</v>
-      </c>
-      <c r="J44" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
-        <v>211</v>
-      </c>
-      <c r="D45" t="s">
-        <v>212</v>
-      </c>
-      <c r="E45" t="s">
-        <v>213</v>
-      </c>
-      <c r="F45">
-        <v>2022</v>
-      </c>
-      <c r="J45" t="s">
-        <v>214</v>
-      </c>
-      <c r="AN45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>215</v>
-      </c>
-      <c r="E46" t="s">
-        <v>216</v>
-      </c>
-      <c r="F46">
-        <v>2025</v>
-      </c>
-      <c r="J46" t="s">
-        <v>217</v>
-      </c>
-      <c r="AN46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
-        <v>218</v>
-      </c>
-      <c r="D47" t="s">
-        <v>219</v>
-      </c>
-      <c r="E47" t="s">
-        <v>220</v>
-      </c>
-      <c r="F47">
-        <v>2024</v>
-      </c>
-      <c r="J47" t="s">
-        <v>221</v>
-      </c>
-      <c r="AN47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="3:40" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
-        <v>223</v>
-      </c>
-      <c r="D48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" t="s">
-        <v>222</v>
-      </c>
-      <c r="F48">
-        <v>2024</v>
-      </c>
-      <c r="J48" t="s">
-        <v>224</v>
-      </c>
-      <c r="AN48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="3:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
-        <v>226</v>
-      </c>
-      <c r="D49" t="s">
-        <v>227</v>
-      </c>
-      <c r="E49" t="s">
-        <v>225</v>
-      </c>
-      <c r="F49">
-        <v>2020</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="AN49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D50" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" t="s">
-        <v>229</v>
-      </c>
-      <c r="F50">
-        <v>2015</v>
-      </c>
-      <c r="J50" t="s">
-        <v>231</v>
-      </c>
-      <c r="AN50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab92c565-5003-4ac3-93a3-a3ce8796a3c0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B6889C2593FACB4192549183B8B19287" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="32060b2073082e2092342fdaa07ba96e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab92c565-5003-4ac3-93a3-a3ce8796a3c0" xmlns:ns3="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="930e06c061e109ec993a06acfd2977e1" ns2:_="" ns3:_="">
+    <xsd:import namespace="ab92c565-5003-4ac3-93a3-a3ce8796a3c0"/>
+    <xsd:import namespace="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ab92c565-5003-4ac3-93a3-a3ce8796a3c0" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="75195dc1-fe89-472b-8717-1a0640488213" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{9d5b2749-c0c4-4483-901e-60ca1fd7f0c8}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBAD60B-7F90-4002-B404-308E08C2026F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab92c565-5003-4ac3-93a3-a3ce8796a3c0"/>
+    <ds:schemaRef ds:uri="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B179898C-7A33-44FD-8FB3-412E9BC3E39D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E40287F7-4059-4E25-8701-97E33E6EB93E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ab92c565-5003-4ac3-93a3-a3ce8796a3c0"/>
+    <ds:schemaRef ds:uri="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/7_Data_Extraction/Data_Extraction_Bartolomeo.xlsx
+++ b/7_Data_Extraction/Data_Extraction_Bartolomeo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29113"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/7_Data_Extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E48931-55B4-3644-9CF1-A123760CAB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="13_ncr:1_{FCCCB76F-2F57-C54F-9130-0DC04A9349A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1BAD299-3E42-4795-AFDC-F3ED830604E3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="6280" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="341">
   <si>
     <t>ID</t>
   </si>
@@ -200,6 +200,30 @@
     <t>PS</t>
   </si>
   <si>
+    <t>Pub Year = 2022
+Method = Prioritization</t>
+  </si>
+  <si>
+    <t>ML-based prioritization secondo tassonomia Yoo et al.</t>
+  </si>
+  <si>
+    <t>ML-based algorithms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tcp-ci-dataset</t>
+  </si>
+  <si>
+    <t>Domain = CI-based OSS
+#Test Cases = non esplicito, ma 2.5k failed builds totali
+LOC = non specificato</t>
+  </si>
+  <si>
+    <t>execution time, fault detection, code complexity, change history, coverage</t>
+  </si>
+  <si>
+    <t>APFD, retrain frequency, feature impact</t>
+  </si>
+  <si>
     <t>B Jiang, Y Wu, Y Zhang, Z Zhang, WK Chan</t>
   </si>
   <si>
@@ -212,6 +236,37 @@
     <t>Mobile applications are widely used in our daily life and Android is the most popular open source mobile operating system. Because mobile applications update frequently, it is important developers to perform regression testing to ensure their quality. Modeling the control flow of an android application based on the activity lifecycle model only is imprecise for regression testing. Because many Android applications use asynchronous tasks, fragments, and native code frequently, which must be considered during change impact analysis. Otherwise, regression test selection techniques may miss some failure-revealing test cases, compromising the safety of these techniques. In this work, we propose a novel approach to model asynchronous task invocations, fragment-based activity lifecycle, and native code within the control flow graph of an Android application. Furthermore, we designed a regression test selection tool ReTestDroid based on our graph model. Our experiments on five real-life Android applications showed that our approach could enable much safer regression test selection while significantly saving regression-testing time.</t>
   </si>
   <si>
+    <t>Pub Year = 2018
+Method = Selection</t>
+  </si>
+  <si>
+    <t>Graph-walk secondo tassonomia Yoo et al.</t>
+  </si>
+  <si>
+    <t>Static analysis-based</t>
+  </si>
+  <si>
+    <t>SUT usati:
+K9-Mail
+Music (Android built-in)
+Open Sudoku
+Tomdroid
+Mozilla Firefox Mobile</t>
+  </si>
+  <si>
+    <t>App: K9-Mail — Domain: Email — Test Cases: 200 — LOC: 24.5K
+App: Music — Domain: Multimedia — Test Cases: 200 — LOC: 11.9K
+App: Open Sudoku — Domain: Game — Test Cases: 200 — LOC: 3.4K
+App: Tomdroid — Domain: Notes — Test Cases: 200 — LOC: 4.9K
+App: Mozilla Firefox Mobile — Domain: Browser — Test Cases: 200 — LOC: 86.9K</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Control flow coverage, Structural changes, Code coverage matrix</t>
+  </si>
+  <si>
+    <t>Safety, % di test selezionati, Test suite execution time</t>
+  </si>
+  <si>
     <t>Y Lu, Y Lou, S Cheng, L Zhang, D Hao, Y Zhou, L Zhang</t>
   </si>
   <si>
@@ -224,6 +279,33 @@
     <t>In recent years, researchers have intensively investigated various topics in test prioritization, which aims to re-order tests to increase the rate of fault detection during regression testing. While the main research focus in test prioritization is on proposing novel prioritization techniques and evaluating on more and larger subject systems, little effort has been put on investigating the threats to validity in existing work on test prioritization. One main threat to validity is that existing work mainly evaluates prioritization techniques based on simple artificial changes on the source code and tests. For example, the changes in the source code usually include only seeded program faults, whereas the test suite is usually not augmented at all. On the contrary, in real-world software development, software systems usually undergo various changes on the source code and test suite augmentation. Therefore, it is not clear whether the conclusions drawn by existing work in test prioritization from the artificial changes are still valid for real-world software evolution. In this paper, we present the first empirical study to investigate this important threat to validity in test prioritization. We reimplemented 24 variant techniques of both the traditional and time-aware test prioritization, and investigated the impacts of software evolution on those techniques based on the version history of 8 real-world Java programs from GitHub. The results show that for both traditional and time-aware test prioritization, test suite augmentation significantly hampers their effectiveness, whereas source code changes alone do not influence their effectiveness much.</t>
   </si>
   <si>
+    <t>Pub Year = 2016
+Method = Prioritization</t>
+  </si>
+  <si>
+    <t>Coverage-based prioritization secondo tassonomia Yoo et al.</t>
+  </si>
+  <si>
+    <t>Search-based, Greedy, Random</t>
+  </si>
+  <si>
+    <t>Single-objective</t>
+  </si>
+  <si>
+    <t>jasmine-maven, java-apns, jopt-simple, la4j, scribe-java, vraptor-core, assertj-core, metrics-core</t>
+  </si>
+  <si>
+    <t>LOC = 1.3K–67K
+Test Cases = 7–5,269
+Domain = Librerie Java reali</t>
+  </si>
+  <si>
+    <t>code coverage, execution time, fault detection, test history</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> APFD, var. APFD, statistical significance tests</t>
+  </si>
+  <si>
     <t>S Ji, B Li, P Zhang</t>
   </si>
   <si>
@@ -234,6 +316,30 @@
   </si>
   <si>
     <t>Composite services evolve for various reasons. Test case selection in the regression testing is an effective technique to ensure the correctness of modified versions meanwhile to reduce the cost of testing. However, few work has studied the test case selection problem based on the data flow testing criteria. In addition, there are three observable kinds of changes during the evolution, including Process change, Binding change and Interface change, which all bring impact to the data flow. To address these issues, a test case selection approach is proposed for regression testing of BPEL (Business Process Execution Language) composite service where all-uses criterion is satisfied and all the three change types are involved. BPEL composite service is modeled with a two-level model in which XCFG (eXtended Control Flow Graph) describes the behavior of BPEL process in the first level and WSDM (Web Service Description Model) depicts the interface information of composite service and partner services in the second level. Change impact analysis is performed to identify the affected definition-use pairs by comparing and analyzing two-level models of the baseline and evolved versions. And testing paths are generated to cover the affected definition-use pairs and select test cases based on the path condition analysis. Empirical result shows that the proposed approach is effective.</t>
+  </si>
+  <si>
+    <t>Pub Year = 2019
+Method = Selection</t>
+  </si>
+  <si>
+    <t>data-flow secondo tassonomia Yoo et al.</t>
+  </si>
+  <si>
+    <t>Model-based</t>
+  </si>
+  <si>
+    <t>Loan Composite Service</t>
+  </si>
+  <si>
+    <t>Dominio = Servizi Web / SOA
+#Test Cases = non specificato
+LOC = non specificato</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> data-flow info, interface info, process/binding/interface changes</t>
+  </si>
+  <si>
+    <t>Qualitative/Effectiveness</t>
   </si>
   <si>
     <t>O Legunsen, F Hariri, A Shi, Y Lu, L Zhang, D Marinov</t>
@@ -249,6 +355,27 @@
 This paper presents the first extensive study that evaluates the performance benefits of static RTS techniques and their safety; a technique is safe if it selects to run all tests that may be affected by code changes. We implemented two static RTS techniques, one class-level and one method-level, and compare several variants of these techniques. We also compare these static RTS techniques against Ekstazi, a state-of-the-art, class-level, dynamic RTS technique. The experimental results on 985 revisions of 22 open-source projects show that the class-level static RTS technique is comparable to Ekstazi, with similar performance benefits, but at the risk of being unsafe sometimes. In contrast, the method-level static RTS technique performs rather poorly.</t>
   </si>
   <si>
+    <t>Pub Year = 2016
+Method = Selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selection-based secondo tassonomia Yoo et al.</t>
+  </si>
+  <si>
+    <t>invokebinder, logback-encoder, compile-testing, commons-cli, commons-dbutils, commons-fileupload, commons-validator, asterisk-java, commons-codec, commons-compress, commons-email, commons-collections, commons-lang, commons-imaging, commons-dbcp, HikariCP, commons-io, addthis.stream-lib, commons-math, OpenTripPlanner, commons-pool2, jankotek.mapdb</t>
+  </si>
+  <si>
+    <t>LOC = 2k–185k
+#Test = 2–450+
+Domain = Java OSS libraries/tools</t>
+  </si>
+  <si>
+    <t>static dependencies, call graphs, bytecode change detection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> #Tests selected, Time, Safety %, Precision %</t>
+  </si>
+  <si>
     <t>L Zhang</t>
   </si>
   <si>
@@ -261,6 +388,64 @@
     <t>Regression testing is crucial but can be extremely costly. Regression Test Selection (RTS) aims to reduce regression testing cost by only selecting and running the tests that may be affected by code changes. To date, various RTS techniques analyzing at different granularities (e.g., at the basic-block, method, and file levels) have been proposed. RTS techniques working on finer granularities may be more precise in selecting tests, while techniques working on coarser granularities may have lower overhead. According to a recent study, RTS at the file level (FRTS) can have less overall testing time compared with a finer grained technique at the method level, and represents state-of-the-art RTS. In this paper, we present the first hybrid RTS approach, HyRTS, that analyzes at multiple granularities to combine the strengths of traditional RTS techniques at different granularities. We implemented the basic HyRTS technique by combining the method and file granularity RTS. The experimental results on 2707 revisions of 32 projects, totalling over 124 Million LoC, demonstrate that HyRTS outperforms state-of-the-art FRTS significantly in terms of selected test ratio and the offline testing time. We also studied the impacts of each type of method-level changes, and further designed two new HyRTS variants based on the study results. Our additional experiments show that transforming instance method additions/deletions into file-level changes produces an even more effective HyRTS variant that can significantly outperform FRTS in both offline and online testing time.</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">Dynamic RTS – </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hybrid File + Method Level</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (nuova etichetta proposta </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Dynamic_Hybrid_File+Method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Dependency‑based</t>
+  </si>
+  <si>
+    <t>invokebinder, compile-testing, logstash-logback-encoder, commons-cli, joda-time, commons-dbutils, commons-validator, commons-fileupload, asterisk-java, commons-functor, la4j, commons-jxpath, commons-email, commons-compress, commons-codec, jfreechart, commons-collections, commons-lang, commons-imaging, commons-configuration, commons-net, closure-compiler, java-apns, commons-io, commons-math, commons-dbcp, log4j, stream-lib, HikariCP, OpenTripPlanner, commons-pool, mapdb</t>
+  </si>
+  <si>
+    <t>Domain = Java Open-Source Libraries / Applications
+#Test Cases = 2-16k
+LOC = 214k-29m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bytecode-level checksums, Method-level code changes, Runtime test dependencies</t>
+  </si>
+  <si>
+    <t>Selected Test Ratio; AE time (Analysis + Execution); AEC time (Analysis + Execution + Collection)</t>
+  </si>
+  <si>
     <t>Shouvick Mondal, Rupesh Nasre</t>
   </si>
   <si>
@@ -273,6 +458,30 @@
     <t>Traditionally, given a test-suite and the underlying system-under-test, existing test-case prioritization heuristics report a permutation of the original test-suite that is seemingly best according to their criteria. However, we observe that a single heuristic does not perform optimally in all possible scenarios, given the diverse nature of software and its changes. Hence, multiple individual heuristics exhibit effectiveness differently. Interestingly, together, the heuristics bear the potential of improving the overall regression test selection across scenarios. In this paper, we pose the test-case prioritization as a rank aggregation problem from social choice theory. Our solution approach, named Hansie, is two-flavored: one involving priority-aware hybridization, and the other involving priority-blind computation of a consensus ordering from individual prioritizations. To speed-up test-execution, Hansie executes the aggregated test-case orderings in a parallel multi-processed manner leveraging regular windows in the absence of ties, and irregular windows in the presence of ties. We show the benefit of test-execution after prioritization and introduce a cost-cognizant metric (EPL) for quantifying overall timeline latency due to load-imbalance arising from uniform or non-uniform parallelization windows. We evaluate Hansie on 20 open-source subjects totaling 287,530 lines of source code, 69,305 test-cases, and with parallelization support of up to 40 logical CPUs.</t>
   </si>
   <si>
+    <t>Pub Year = 2021
+Method = Prioritization</t>
+  </si>
+  <si>
+    <t>Heuristic-based Prioritization (nuova etichetta suggerita)</t>
+  </si>
+  <si>
+    <t>Heuristic-based + Ranking Aggregation</t>
+  </si>
+  <si>
+    <t>Software-artifact Infrastructure Repository (SIR), GTSP</t>
+  </si>
+  <si>
+    <t>Domain = Java / C / LISP CLI-based applications
+#Test Cases = 400-2700
+LOC = 1000-8000</t>
+  </si>
+  <si>
+    <t>Basic-block coverage, Code changes (add/modify/delete), Relevance score, Confinedness score, Execution cost, Regression version pairs, Failure labels (pass/fail vectors), Prioritization permutations, Kendall-tau/Hansie distance metrics, Tie-handling and rank-based voting heuristics</t>
+  </si>
+  <si>
+    <t>APFD, APFDc, EPS , ECC,  EPLω, Kendall-τ and Hansie distances for consensus quality</t>
+  </si>
+  <si>
     <t>X Wang, A Muqeet, T Yue, S Ali, P Arcaini</t>
   </si>
   <si>
@@ -285,6 +494,33 @@
     <t>Quantum annealers are specialized quantum computers for solving combinatorial optimization problems with special quantum computing characteristics, e.g., superposition and entanglement. Theoretically, quantum annealers can outperform classic computers. However, current quantum annealers are constrained by a limited number of qubits and cannot demonstrate quantum advantages. Nonetheless, research is needed to develop novel mechanisms to formulate combinatorial optimization problems for quantum annealing (QA). However, QA applications in software engineering remain unexplored. Thus, we propose BootQA, the very first effort at solving test case minimization (TCM) problems on classical software with QA. We provide a novel TCM formulation for QA and utilize bootstrap sampling to optimize the qubit usage. We also implemented our TCM formulation in three other optimization processes: simulated annealing (SA), QA without problem decomposition, and QA with an existing D-Wave problem decomposition strategy, and conducted an empirical evaluation with three real-world TCM datasets. Results show that BootQA outperforms QA without problem decomposition and QA with the existing decomposition strategy regarding effectiveness. Moreover, BootQA’s effectiveness is similar to SA. Finally, BootQA has higher efficiency in terms of time when solving large TCM problems than the other three optimization processes.</t>
   </si>
   <si>
+    <t>Pub Year = 2024
+Method = Minimization</t>
+  </si>
+  <si>
+    <t>Search-based, Quantum, Minimization</t>
+  </si>
+  <si>
+    <t>Search-based, Quantum Annealing</t>
+  </si>
+  <si>
+    <t>Multi-objective</t>
+  </si>
+  <si>
+    <t>PaintControl, GSDTSR, IOF/ROL</t>
+  </si>
+  <si>
+    <t>#Test Cases= 89–1663
+Domain = Robotics / CI pipelines
+LOC= non specificato</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Execution time, failure rate</t>
+  </si>
+  <si>
+    <t>FV, exTime, Embedding time, significance tests</t>
+  </si>
+  <si>
     <t>N Khoshniat, A Jamarani, A Ahmadzadeh, M Haghi Kashani, E Mahdipour</t>
   </si>
   <si>
@@ -300,6 +536,10 @@
     <t>SR</t>
   </si>
   <si>
+    <t>Pub Year = 2023
+Method = None (Survey)</t>
+  </si>
+  <si>
     <t>J Chen, Y Gu, S Cai, H Chen, J Chen</t>
   </si>
   <si>
@@ -312,6 +552,30 @@
     <t>Regression testing is an essential and expensive process in software testing. However, there may be insufficient resources for the execution of all test cases during regression testing. Test case prioritization (TCP) techniques improve the efficiency of regression testing by adjusting the test case execution sequence. Traditional TCP techniques usually rely on the historical execution information of the software under test for more efficient results. String distance‐based TCP (SD‐TCP) avoids these limitations; it uses only the textual difference information of the test cases themselves for prioritization. However, the time overhead on the sorting process of this method is not ideal, and the extreme test case inputs have an impact on the stability of the method. To address these problems, we propose a novel test case prioritization strategy, it first classifies the test cases more finely using the K‐medoids algorithm and then transforms the set into subsequences and improves the early diversity by greedy sorting within clusters. Finally, the test cases are selected through a polling strategy to compose the execution sequence. Extensive experimental results demonstrate that the proposed approach outperforms SD‐TCP in better time efficiency on test case prioritization; it also has a higher average percentage of fault detected (APFD) value than random prioritization (RP) and SD‐TCP.</t>
   </si>
   <si>
+    <t>Pub Year = 2024
+Method = Prioritization</t>
+  </si>
+  <si>
+    <t>Black-box prioritization, clustering-based, greedy strategy</t>
+  </si>
+  <si>
+    <t>Model-based, heuristic</t>
+  </si>
+  <si>
+    <t>Siemens suite</t>
+  </si>
+  <si>
+    <t>LOC: 3.7k–18k
+#Test cases: 1052–5542
+Dominio = Benchmark C programs</t>
+  </si>
+  <si>
+    <t>string similarity, test input diversity, clustering output</t>
+  </si>
+  <si>
+    <t>APFD, execution time, first-fault position, p-value</t>
+  </si>
+  <si>
     <t>ZC Demir, Ş Emrah Amrahov</t>
   </si>
   <si>
@@ -324,6 +588,34 @@
     <t>In this study, we consider test case prioritization (TCP) problem for regression testing. Regression tests are used to ensure that software updates do not affect other software functionality. In the process of regression tests, the tests previously used for software testing are run again. However, running all existing tests is a costly process as it will cause time and labor loss. Therefore, an optimization can be made by giving priority to the tests according to certain criteria and running the tests with high priority values. This reduces the burden of unnecessary tests and regression tests reach their goals more quickly. In this study, we show that TCP problem is equivalent to the problem of finding dominating sets for the bipartite graphs. We propose 3 algorithms based on dominating sets and then we compare experimental results of the proposed algorithms with the results of the existing algorithms.</t>
   </si>
   <si>
+    <t>Pub Year: 2022
+Method= Prioritization</t>
+  </si>
+  <si>
+    <t>Graph-Based Requirement Coverage (nuova etichetta suggerita)</t>
+  </si>
+  <si>
+    <t>Greedy algorithms</t>
+  </si>
+  <si>
+    <t>simulato</t>
+  </si>
+  <si>
+    <t>Domain = synthetic test–requirement matrices
+#Test Cases: da 50 a 100,000
+LOC:  Non applicabile (no codice reale)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test–Requirement traceability matrix, </t>
+  </si>
+  <si>
+    <t>Test cases needed to cover all requirements, execution time per algorithm (in seconds), % of requirements covered, Comparison against GA, ACO, PSO</t>
+  </si>
+  <si>
+    <t>0.5
+(Gli autori dichiarano che i codici sono disponibili su richiesta, ma non sono pubblicamente accessibili)</t>
+  </si>
+  <si>
     <t>M Hasnain, MF Pasha, I Ghani, SR Jeong</t>
   </si>
   <si>
@@ -339,6 +631,10 @@
     <t>SLR</t>
   </si>
   <si>
+    <t>Pub Year: 2021
+Method: Prioritization</t>
+  </si>
+  <si>
     <t>Muhammad Khatibsyarbini; Mohd Adham Isa; Dayang N. A. Jawawi; Muhammad Luqman Mohd Shafie; Wan Mohd Nasir Wan-Kadir; Haza Nuzly Abdull Hamed</t>
   </si>
   <si>
@@ -363,6 +659,30 @@
     <t>Regression testing of software is a crucial but time-consuming task, especially in the context of user interface (UI) testing where multiple microservices must be validated simultaneously. Test case prioritization (TCP) is a cost-efficient solution to address this by scheduling test cases in an execution order that maximizes an objective function, generally aimed at increasing the fault detection rate. While several techniques have been proposed for TCP, most rely on source code information which is usually not available for UI testing. In this paper, we introduce a multi-objective optimization approach to prioritize UI test cases, using evolutionary search algorithms and four coverage criteria focusing on web page elements as objectives for the optimization problem. Our method, which does not require source code information, is evaluated using two evolutionary algorithms (AGE-MOEA and NSGA-II) and compared with other TCP methods on a self-collected dataset of 11 test suites. The results show that our approach significantly outperforms other methods in terms of Average Percentage of Faults Detected (APFD) and APFD with Cost (APFDc), achieving the highest scores of 87.8% and 79.2%, respectively. We also introduce a new dataset and demonstrate the significant improvement of our approach over existing ones via empirical experiments. The paper’s contributions include the application of web page segmentation in TCP, the construction of a new dataset for UI TCP, and empirical comparisons that demonstrate the improvement of our approach.</t>
   </si>
   <si>
+    <t>Pub Year: 2024
+Method: Prioritization</t>
+  </si>
+  <si>
+    <t>Multi-objective UI-aware Search-based TCP (nuova etichetta suggerita)</t>
+  </si>
+  <si>
+    <t>Genetic Algorithms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addressbook, claroline, dimeshift, pagekit, phoenix, ppma,  juice_shop , mattermost, moodle </t>
+  </si>
+  <si>
+    <t>Domain = Web Applications (UI-based)
+#Test Cases = 27–314
+LOC = N/A (non riportato)</t>
+  </si>
+  <si>
+    <t>Segment-based DOM analysis, segment coverage, object coverage, object-type coverage , sibling object coverage, dynamically extracted XPath, URL and object type</t>
+  </si>
+  <si>
+    <t>APFD, APFDc, MTFD, NAPFD, FDR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Namita Panda &amp; Durga Prasad Mohapatra </t>
   </si>
   <si>
@@ -375,6 +695,31 @@
     <t>User requirements are the building blocks for development of software applications. User requirements decide the width and breadth of any software. Nowadays, test scenarios are prepared from the user requirements, which give the test engineers ample scope to review the test plan thoroughly before doing software testing. Regression testing is carried out to know the effect of requirement changes on the functionalities and performance of the software. Test scenario prioritization, which is one of the techniques to perform regression testing, maximizes the ease of debugging for the system under test. The code based test scenario prioritization and model based test scenario prioritization have their own limitations. So, to achieve ease of debugging and to get more time for reviewing the test plans, researchers are now working on test scenario prioritization using requirements collected from the end users. In this paper, we propose an approach named Requirement based test scenario prioritization to prioritize test scenarios using requirements collected from end users for developing software applications. The user’s functional requirements are collected and is assigned with some weight depending upon different factors like complexity of implementing the requirements, type of release of the requirements, requirement volatility, coupling between requirements etc. Test scenarios are generated from requirements collected from the end users. Then, the final priority weight of each test scenario is found out by considering the weight of each requirement covered by the corresponding test scenario and the percentage of requirements coverage made by each test scenario. The test scenarios are prioritized based on the final priority weight. The proposed approach is evaluated using average percentage of fault detection metric and is found to be very efficient in early test scenario prioritization and detection of faults.</t>
   </si>
   <si>
+    <t>Search-based, Cost-aware</t>
+  </si>
+  <si>
+    <t>Hybrid Artificial Bee Colony</t>
+  </si>
+  <si>
+    <t>SUT usati:
+flex
+grep
+gzip
+sed
+space</t>
+  </si>
+  <si>
+    <t>Domain = Command-line C Utilities (SIR Benchmark)
+#Test Cases = 316–1,004
+LOC = 5.7K–13.6K</t>
+  </si>
+  <si>
+    <t>Fault detection history, execution time, test similarity (Levenshtein distance), cost-aware prioritization, mutation faults, test ID mapping, fault severity level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APFD, APFDc (cost-aware), MTD, RE, FEM, FSE,  </t>
+  </si>
+  <si>
     <t>Sadia Ali, Yaser Hafeez, Shariq Hussain &amp; Shunkun Yang</t>
   </si>
   <si>
@@ -387,6 +732,30 @@
     <t>To survive in competitive marketplaces, most organizations have adopted agile methodologies to facilitate continuous integration and faster application delivery and rely on regression testing during application development to validate the quality and reliability of the software after changes have been made. Consequently, for large projects with cost and time constraints, it is extremely difficult to determine which test cases to run at the end of each release. In this paper, a test case prioritization and selection approach is proposed to improve the quality of releases. From existing literature, we analyzed prevailing problems and proposed solution relevant to regression testing in agile practices. The proposed approach is based on two phases. First, test cases are prioritized by clustering those test cases that frequently change. In case of a tie, test cases are prioritized based on their respective failure frequencies and coverage criteria. Second, test cases with a higher frequency of failure or coverage criteria are selected. The proposed technique was validated by an empirical study on three industrial subjects. The results show that the method successfully selects an optimal test suite and increases the fault detection rate (i.e., more than 90% in the case of proposed technique and less than 50% in other techniques), which reduces the number of irrelevant test cases and avoids detecting duplicate faults. The results of evaluation metrics illustrate that the proposed technique significantly outperform (i.e., between 91 and 97%) as compared to other existing regression testing techniques (i.e., between 52 and 68%). Therefore, our model enhances the test case prioritization and selection with the ability for earlier and high fault detection. Thus, pruning out irrelevant test cases and redundant faults and enhancing the regression testing process for agile applications.</t>
   </si>
   <si>
+    <t>Pub Year = 2019
+Method = Prioritization</t>
+  </si>
+  <si>
+    <t>Model-based prioritization, similarity-based, greedy</t>
+  </si>
+  <si>
+    <t>Model-based, similarity via UML SD</t>
+  </si>
+  <si>
+    <t>OMTBS, CRS, TAS</t>
+  </si>
+  <si>
+    <t>Test: 8–12
+LOC: n.d.
+Dominio: sistemi informativi simulati</t>
+  </si>
+  <si>
+    <t>test similarity</t>
+  </si>
+  <si>
+    <t>APFD, execution time</t>
+  </si>
+  <si>
     <t>S Biswas, A Bansal, P Mitra, R Mall</t>
   </si>
   <si>
@@ -399,6 +768,26 @@
     <t>We propose a set of four novel fault-based regression test case prioritization (TCP) techniques for object-oriented programs. We seed bugs into a program to create large number of mutants. We execute each mutant with the originally designed test suite. From this, we record the number of mutants for which a test case fails. Based on this, we prioritize the test cases using four base fault-based prioritization techniques that we have proposed. Finally, we combine the results of our four base prioritizers using three ensemble methods. We have conducted experimental studies to determine the effectiveness of our proposed approaches. Our experimental results show that our proposed TCP techniques exhibit superior performance over related techniques.</t>
   </si>
   <si>
+    <t>Coverage-based, Fault-based</t>
+  </si>
+  <si>
+    <t>Coverage/Fault heuristic</t>
+  </si>
+  <si>
+    <t>Tetris, Ant, Jasmine, GCT, Zen, Freemind, Empi, Redraw</t>
+  </si>
+  <si>
+    <t>LOC: ~variabile
+#Test: 100+
+Dominio = OSS + educational</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> coverage (stmt, branch), FEP, fault history</t>
+  </si>
+  <si>
+    <t>APFD, fault detection rate</t>
+  </si>
+  <si>
     <t>A Bajaj, A Abraham</t>
   </si>
   <si>
@@ -411,6 +800,30 @@
     <t>Regression testing is an integral part of the software evolution and maintenance phase as it ensures that the modified software is working correctly after any upgrades. Test case prioritization and reduction minimize cost and effort needed for retesting by scheduling critical test cases before the less critical ones and removing redundant test cases. The criticality and redundancy of the test cases depend on several testing criteria. This paper empirically analyzed the effect of different testing criteria like code and fault coverage on the techniques' performance. This paper proposed a discrete Quantum-behaved particle swarm optimization (QPSO) for enhancing efficiency of test case prioritization. The algorithm is improved by replacing the random distribution with Gaussian probability to escape from the local optima. The evolution stagnation issue is further resolved by hybridizing it with genetic algorithm (QPSO-GA). In addition to prioritizing the test cases, the algorithm also reduces the test suite size through the test suite reduction approach. The experiments are conducted on different versions of three pro-grams from the open-source software infrastructure repository. The performance is compared with the average percentage of statement coverage, fault detection, and their combinations with the cost. Consequently, suite reduction, fault detection capability losses, and coverage loss percentage are also drawn for test suite reduction. The proposed algorithms outperformed the random search, ant colony optimization, differential evolution, GA, PSO, and adaptive PSO for all the evaluation metrics.</t>
   </si>
   <si>
+    <t>Pub Year = 2022
+Method = Prioritization, Minimization</t>
+  </si>
+  <si>
+    <t>Search-based, Hybrid metaheuristic</t>
+  </si>
+  <si>
+    <t>Search-based, quantum-inspired metaheuristic</t>
+  </si>
+  <si>
+    <t>ATM, LMS, CMS</t>
+  </si>
+  <si>
+    <t>LOC: n.d.
+#Test = 21–35
+Dominio = Sistemi informativi simulati</t>
+  </si>
+  <si>
+    <t>coverage, diversity, redundancy, cost</t>
+  </si>
+  <si>
+    <t>APFD, test set reduction, execution cost, diversity</t>
+  </si>
+  <si>
     <t>A Bajaj, A Abraham, S Ratnoo, LA Gabralla</t>
   </si>
   <si>
@@ -423,6 +836,30 @@
     <t>The emerging areas of IoT and sensor networks bring lots of software applications on a daily basis. To keep up with the ever-changing expectations of clients and the competitive market, the software must be updated. The changes may cause unintended consequences, necessitating retesting, i.e., regression testing, before being released. The efficiency and efficacy of regression testing techniques can be improved with the use of optimization approaches. This paper proposes an improved quantum-behaved particle swarm optimization approach for regression testing. The algorithm is improved by employing a fix-up mechanism to perform perturbation for the combinatorial TCP problem. Second, the dynamic contraction-expansion coefficient is used to accelerate the convergence. It is followed by an adaptive test case selection strategy to choose the modification-revealing test cases. Finally, the superfluous test cases are removed. Furthermore, the algorithm’s robustness is analyzed for fault as well as statement coverage. The empirical results reveal that the proposed algorithm performs better than the Genetic Algorithm, Bat Algorithm, Grey Wolf Optimization, Particle Swarm Optimization and its variants for prioritizing test cases. The findings show that inclusivity, test selection percentage and cost reduction percentages are higher in the case of fault coverage compared to statement coverage but at the cost of high fault detection loss (approx. 7%) at the test case reduction stage.</t>
   </si>
   <si>
+    <t>Pub Year: 2022
+Method: Prioritization</t>
+  </si>
+  <si>
+    <t>Adaptive prioritization</t>
+  </si>
+  <si>
+    <t>Heuristic / Rule-based</t>
+  </si>
+  <si>
+    <t>Smart Irrigation System</t>
+  </si>
+  <si>
+    <t>Domain = Cyber-Physical System / IoT
+#Test Cases = 20
+LOC = 500+</t>
+  </si>
+  <si>
+    <t>Requirement priority, Test execution time, Dynamic re-ranking feedback</t>
+  </si>
+  <si>
+    <t>APFD, AET</t>
+  </si>
+  <si>
     <t>R Mamata, A Azim, R Liscano, K Smith, YK Chang, G Seferi, Q Tauseef</t>
   </si>
   <si>
@@ -435,6 +872,27 @@
     <t>The continuous Integration (CI) process runs a large set of automated test cases to verify software builds. The testing phase in the CI systems has timing constraints to ensure software quality without significantly delaying the CI builds. Therefore, CI requires efficient testing techniques such as Test Case Prioritization (TCP) to run faulty test cases with priority. Recent research studies on TCP utilize different Machine Learning (ML) methods to adopt the dynamic and complex nature of CI. However, the performance of ML for TCP may decrease for a low volume of data and less failure rate, whereas using existing data with similar patterns from other domains can be valuable. We formulate this as a transfer learning (TL) problem. TL has proven to be beneficial for many real-world applications where source domains have plenty of data, but the target domains have a scarcity of it. Therefore, this research investigates leveraging the benefit of transfer learning for test case prioritization (TCP). However, only some industrial CI datasets are publicly available due to data privacy protection regulations. In such cases, model-based transfer learning is a potential solution to share knowledge among different projects without revealing data to other stakeholders. This paper applies TransBoost, a tree-kernel-based TL algorithm, to evaluate the TL approach for 24 study subjects and identify potential source datasets.</t>
   </si>
   <si>
+    <t>Pub Year: 2023
+Method: Prioritization</t>
+  </si>
+  <si>
+    <t>New label: Transfer Learning-Based Prioritization</t>
+  </si>
+  <si>
+    <t>Machine Learning/ Transfer Learning</t>
+  </si>
+  <si>
+    <t>commons-math, commons-lang, commons-io, commons-codec, joda-time, mockito</t>
+  </si>
+  <si>
+    <t>Domain = Open-source Java libraries
+#Test Cases: tra 300 e 10,000+
+LOC: tra 10,000 e 150,000</t>
+  </si>
+  <si>
+    <t>Cost-Aware APFDc, nDCG, F1-score, Execution cost, Training time / Inference time</t>
+  </si>
+  <si>
     <t>J Zhang, Y Liu, M Gligoric, O Legunsen, A Shi</t>
   </si>
   <si>
@@ -447,6 +905,26 @@
     <t>Regression testing---rerunning tests on each code version to detect newly-broken functionality---is important and widely practiced. But, regression testing is costly due to the large number of tests and the high frequency of code changes. Regression test selection (RTS) optimizes regression testing by only rerunning a subset of tests that can be affected by changes. Researchers showed that RTS based on program analysis can save substantial testing time for (medium-sized) open-source projects. Practitioners also showed that RTS based on machine learning (ML) works well on very large code repositories, e.g., in Facebook's monorepository. We combine analysis-based RTS and ML-based RTS by using the latter to choose a subset of tests selected by the former. We first train several novel ML models to learn the impact of code changes on test outcomes using a training dataset that we obtain via mutation analysis. Then, we evaluate the benefits of combining ML models with analysis-based RTS on 10 projects, compared with using each technique alone. Combining ML-based RTS with two analysis-based RTS techniques-Ekstazi and STARTS-selects 25.34% and 21.44% fewer tests, respectively.</t>
   </si>
   <si>
+    <t>Human-based, Distribution-based</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>Time, Math, Lang, Mockito, Closure</t>
+  </si>
+  <si>
+    <t>Domain = Java Open-Source Libraries / Applications
+#Test Cases = 400–2000
+LOC = n/d</t>
+  </si>
+  <si>
+    <t>Test method name, TF-IDF vectorization, code coverage information, execution time, flaky test detection, cosine similarity,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APFD,  APFDc,  Effectiveness on flaky tests, Execution time </t>
+  </si>
+  <si>
     <t>M Nazir, A Mehmood, W Aslam, Y Park, GS Choi, I Ashraf</t>
   </si>
   <si>
@@ -459,6 +937,26 @@
     <t>Regression testing is carried out to test the updated supply code within the constraints of time and sources. Since it is very difficult to run all the updated source code every time, test case prioritization is needed to decrease the fee of regression testing. Various methodologies including extensions of white box and black box prioritization, have been presented considering the prioritization of test instances. In this context, the employment of particle swarm optimization (PSO) is usually recommended for test case prioritization. Single test case prioritization focuses to order test cases to maximize objectives like fault detection rate, execution time, etc. Regression testing for single-objective test suite prioritization can become challenging due to its longer execution time. However, test case prioritization for multi-objective functions is a complex and time-consuming task. A check suite may be organized in a certain order by an appropriate technique, subsequently permitting the detection of flaws as early as possible. Multi-goal particle swarm optimization (MOPSO) is used for case prioritization in regression testing. The purpose of MOPSO in this context is to organize the test suite in a specific order that maximizes fault coverage, provides sufficient coverage of test cases, and minimizes execution time. This study proposes an approach based on MOPSO that focuses on maximum fault coverage, most circumstance insurance, and minimal execution time. Experiments are performed using the average percentage of faults detected (APFD) to evaluate its performance. Performance analysis using APFD consisting of no order, opposite order, and random order indicates that the MOPSO surpasses all the previous techniques and obtains an 85% fault coverage. Moreover, MOPSO is better in terms of execution time, fault detection fee, and early detection capabilities.</t>
   </si>
   <si>
+    <t>Search-based, Cost-aware, Similarity-aware</t>
+  </si>
+  <si>
+    <t>Search-based</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FreeMind , jEdit </t>
+  </si>
+  <si>
+    <t>Domain = Java Desktop Applications
+#Test Cases = 1,600 (FreeMind), 3,000 (jEdit)
+LOC = 35K (FreeMind), 55K (jEdit)</t>
+  </si>
+  <si>
+    <t>Call graph information, statement coverage, execution time, fault detection history, test case dissimilarity</t>
+  </si>
+  <si>
+    <t>APFD, APFDc. Mean Fault Detection Time. F1-score (per cluster quality). Pareto dominance comparisons. Wilcoxon signed-rank test</t>
+  </si>
+  <si>
     <t>R Wuersching, D Elsner, F Leinen, A Pretschner, G Grueneissl, T Neumeyr, T Vosseler</t>
   </si>
   <si>
@@ -471,6 +969,26 @@
     <t>In automotive software engineering, system-level regression testing is crucial to ensure proper integration of often- times safety-critical components. Due to the inherent complexity of such systems and components, testing is commonly performed manually and in a black-box manner, which is particularly costly and leads to slow feedback cycles between testers and developers. Regression Test Prioritization (RTP) aims to reduce feedback time by ordering tests to reveal faults earlier during the testing process. However, most prior RTP research does not incorporate varying fault severity, which must be taken into account when evaluating and designing appropriate RTP approaches for safety-critical automotive software systems. In this work, we present a case study at our industry partner MAN, a leading international provider of commercial vehicles. We design and instantiate a domain-specific, severity-aware RTP assessment model and comparatively assess state-of-the-art RTP approaches. Our results indicate that simple and partly well- known heuristics based on test history and test costs have the best cost-effectiveness, achieving between 85% and 90% of the maximum possible feedback time reduction. On the other hand, search-based and machine-learning-based RTP approaches do not perform better, especially if available test history is sparse.</t>
   </si>
   <si>
+    <t xml:space="preserve">Risk-based, Cost-aware </t>
+  </si>
+  <si>
+    <t>Greedy Heuristic Algorithms</t>
+  </si>
+  <si>
+    <t>Software embedded automotive reale (fornito da azienda partner)</t>
+  </si>
+  <si>
+    <t>Domain = Embedded Automotive Systems
+#Test Cases = 1,178
+LOC = n/d</t>
+  </si>
+  <si>
+    <t>Test execution time, faultsAPFD-S</t>
+  </si>
+  <si>
+    <t>Time to Risk Detection, Number of High-severity Faults Detected Early, Execution time of prioritization method</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nauman bin Ali, Emelie Engström, Masoumeh Taromirad, Mohammad Reza Mousavi, Nasir Mehmood Minhas, Daniel Helgesson, Sebastian Kunze &amp; Mahsa Varshosaz </t>
   </si>
   <si>
@@ -483,6 +1001,9 @@
     <t>Regression testing is a means to assure that a change in the software, or its execution environment, does not introduce new defects. It involves the expensive undertaking of rerunning test cases. Several techniques have been proposed to reduce the number of test cases to execute in regression testing, however, there is no research on how to assess industrial relevance and applicability of such techniques. We conducted a systematic literature review with the following two goals: firstly, to enable researchers to design and present regression testing research with a focus on industrial relevance and applicability and secondly, to facilitate the industrial adoption of such research by addressing the attributes of concern from the practitioners’ perspective. Using a reference-based search approach, we identified 1068 papers on regression testing. We then reduced the scope to only include papers with explicit discussions about relevance and applicability (i.e. mainly studies involving industrial stakeholders). Uniquely in this literature review, practitioners were consulted at several steps to increase the likelihood of achieving our aim of identifying factors important for relevance and applicability. We have summarised the results of these consultations and an analysis of the literature in three taxonomies, which capture aspects of industrial-relevance regarding the regression testing techniques. Based on these taxonomies, we mapped 38 papers reporting the evaluation of 26 regression testing techniques in industrial settings.</t>
   </si>
   <si>
+    <t>Segnato come PS ma é una SLR</t>
+  </si>
+  <si>
     <t>E Ufuktepe, T Tuglular</t>
   </si>
   <si>
@@ -492,6 +1013,30 @@
     <t>Regression testing is one of the most expensive processes in testing. Prioritizing test cases in regression testing is critical for the goal of detecting the faults sooner within a large set of test cases. We propose a test case prioritization (TCP) technique for regression testing called LoM-Score inspired by the Law of Minimum (LoM) from biology. This technique calculates the impact probabilities of methods calculated by change impact analysis with forward slicing and orders test cases according to LoM. However, this ordering doesn’t consider the possibility that consecutive test cases may be covering the same methods repeatedly. Thereby, such ordering can delay the time of revealing faults that exist in other methods. To solve this problem, we enhance the LoM-Score TCP technique with an adaptive approach, namely with a dissimilarity-based coordinate analysis approach. The dissimilarity-based coordinate analysis uses Jaccard Similarity for calculating the similarity coefficients between test cases in terms of covered methods and the enhanced technique called Dissimilarity-LoM-Score (Dis-LoM-Score) applies a penalty with respective on the ordered test cases. We performed our case study on 10 open-source Java projects from Defects4J, which is a dataset of real bugs and an infrastructure for controlled experiments provided for software engineering researchers. Then, we hand-seeded multiple mutants generated by Major, which is a mutation testing tool. Then we compared our TCP techniques LoM-Score and Dis-LoM-Score with the four traditional TCP techniques based on their Average Percentage of Faults Detected (APFD) results.</t>
   </si>
   <si>
+    <t>Pub Year = 2023
+Method = Prioritization</t>
+  </si>
+  <si>
+    <t>Heuristic-based, dissimilarity-based</t>
+  </si>
+  <si>
+    <t>Heuristic</t>
+  </si>
+  <si>
+    <t>ATM, Banking, Reservation</t>
+  </si>
+  <si>
+    <t>Test: 8–10
+LOC: n.d.
+Dominio: Simulated transaction systems</t>
+  </si>
+  <si>
+    <t>input similarity, input size, diversity heuristics</t>
+  </si>
+  <si>
+    <t>execution time, redundancy rate</t>
+  </si>
+  <si>
     <t>S Nayak, C Kumar, S Tripathi, N Mohanty, V Baral</t>
   </si>
   <si>
@@ -504,6 +1049,22 @@
     <t>Regression testing is a maintenance level activity performed on a modified program to instill confidence in the software’s reliability. Prioritization of test case arranges the regression test suite to detect the faults earlier in the testing process. The test cases necessary for validating the recent changes and finding the maximum faults in minimum time are selected. In this manuscript, an optimization algorithm (Bee Algorithm) based on the intelligent foraging behavior of honey bee swarm has been proposed that can enhance the rate of fault detection in test case prioritization. The bee algorithm, along with the fuzzy rule base, reduces the test cases’ volume by selecting the test cases from the pre-existing test suite. The proposed algorithm developed for enhancing the fault detection rate in minimum time is inspired by the behavior of two types of worker bees, namely scout bees and forager bees. These worker bees are responsible for the maintenance, progress, and growth of the colony. The proposed approach is implemented on two projects. The prioritization result is quantified by using the average percentage of fault detection (APFD) metric. Compared with other existing prioritization techniques like no prioritization, reverse prioritization, random prioritization, and previous work, the proposed algorithm outperforms all in fault detection rate. The effectiveness of the proposed algorithm is represented by using the APFD graphs and charts.</t>
   </si>
   <si>
+    <t>Heuristic-based, clustering-based</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Banking, ATM</t>
+  </si>
+  <si>
+    <t>#Test: 30–40
+Dominio = simulato (IS)</t>
+  </si>
+  <si>
+    <t>requirement similarity, requirement–test mapping, functional coverage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Soumen Nayak, Chiranjeev Kumar &amp; Sachin Tripathi </t>
   </si>
   <si>
@@ -516,6 +1077,29 @@
     <t>Regression testing is a testing method conducted to ensure that improvements do not affect the software’s current behavior. Test cases play a significant role in software testing activities since it detects faults in the software. The selection of test cases for execution based on the priority is a considerable decision-making step since testing needs to be carried out with limited computing resources like cost, effort, and time. Prioritized selection of test cases involves considering specific test case parameters or criteria; prioritizing test cases can be conceived as a multi-criteria decision-making problem. In this paper, using the Analytic Hierarchy Process (AHP) method, we suggest an approach for prioritizing the selection of the test cases. AHP provides a rational framework for structuring a decision-making problem. It is used to determine the priority of a set of criteria and to calculate the consistency ratio of those criteria using pair-wise comparisons of various measures. Using a new priority regression test algorithm proposed in this study, regression test prioritization is transformed into a multi-criteria decision-making problem. The suggested strategy has a higher Average Percentage of Faults Detected (APFD) value when many determinants are taken into account. The experimental results indicate that our proposed prioritization approach would improve the probability that faults will be detected early and enhance performance compared to other prioritization strategies.</t>
   </si>
   <si>
+    <t>Search-Based</t>
+  </si>
+  <si>
+    <t>Hybrid Metaheuristic</t>
+  </si>
+  <si>
+    <t>Three-objective</t>
+  </si>
+  <si>
+    <t>dataset sintetici</t>
+  </si>
+  <si>
+    <t>Domain = Synthetic
+#Test Cases: da 10 a 100
+LOC: n/d</t>
+  </si>
+  <si>
+    <t>Test–requirement coverage matrix, Requirement weights, Test redundancy levels, Execution cost of test cases, Similarity between test cases, Fitness score of test case ordering</t>
+  </si>
+  <si>
+    <t>APFD, execution time, redundancy metrics</t>
+  </si>
+  <si>
     <t>Israr Ghani; Wan Mohd Nasir Wan Kadir; Adila Firdaus Arbain; Imran Ghani</t>
   </si>
   <si>
@@ -528,6 +1112,27 @@
     <t>Regression testing is carried out to ensure that changes or enhancements are not impacting previous working software. Deciding how much retesting is required after modifications, bug fixes or before product deployments are difficult. Therefore, Test Case Selection (TCS) select the satisfactory subset of modified test cases from already executed test suites. The testing primary concerns in TCS for regression testing are efficiency (i.e., coverage, fault detection ability, redundancy) and time. The first challenge in TCS concerns the efficiency of multi-objective test case selection. The second challenge is to improve the execution time to detect the changes in a test suite, which makes it impractical to use these efficiency measures as a single goal for TCS. To overcome these challenges, there is a need to introduce an efficient detection-based multi-objective framework to improve the Time and efficiency of TCS. A multi-objective advanced and efficient regression test case selection (ARTeCS) framework is devised to improve the time performance and efficiency of a given TCS objective relative to the other TCS approaches. An algorithm to detect the changes in test cases using multiple TCS objectives. This comparison found that the enhanced ARTeCS algorithm improves redundancy efficiency by 44.02%. The selection technique showed ARTeCS improved the modified change detection by 43.00%, whereas the Hybrid Whale Optimization Algorithm (HWOA) stated 23% and ACO showed 33% only for selected test cases. Regarding average for fault detection, ACO scores 21%, HWOA scores 11%, and ARTeCS scores 31.08% with total execution times of 12, 21 and 09 seconds, respectively. In conclusion, the multiple-objective ARTeCS framework with four test suite selection parameters is more efficient than the existing multi-objective selection framework.</t>
   </si>
   <si>
+    <t>Pub Year: 2024
+Method: Selection</t>
+  </si>
+  <si>
+    <t>New label: Detection-Based Multi-Objective Selection</t>
+  </si>
+  <si>
+    <t>Banking Management System, Library Management System, Online Voting System</t>
+  </si>
+  <si>
+    <t>Domain = Business / Web Applications
+#Test Cases: 25-30
+LOC: 1200-1500</t>
+  </si>
+  <si>
+    <t>Faults, execution time</t>
+  </si>
+  <si>
+    <t>F-measure, Time saving percentage, Detection effectiveness</t>
+  </si>
+  <si>
     <t>Christoph Laaber; Tao Yue; Shaukat Ali</t>
   </si>
   <si>
@@ -537,6 +1142,19 @@
     <t>Ensuring that software performance does not degrade after a code change is paramount. A solution is to regularly execute software microbenchmarks, a performance testing technique similar to (functional) unit tests, which, however, often becomes infeasible due to extensive runtimes. To address that challenge, research has investigated regression testing techniques, such as test case prioritization (TCP), which reorder the execution within a microbenchmark suite to detect larger performance changes sooner. Such techniques are either designed for unit tests and perform sub-par on microbenchmarks or require complex performance models, drastically reducing their potential application. In this paper, we empirically evaluate single- and multi-objective search-based microbenchmark prioritization techniques to understand whether they are more effective and efficient than greedy, coverage-based techniques. For this, we devise three search objectives, i.e., coverage to maximize, coverage overlap to minimize, and historical performance change detection to maximize. We find that search algorithms (SAs) are only competitive with but do not outperform the best greedy, coverage-based baselines. However, a simple greedy technique utilizing solely the performance change history (without coverage information) is equally or more effective than the best coverage-based techniques while being considerably more efficient, with a runtime overhead of less than 1%. These results show that simple, non-coverage-based techniques are a better fit for microbenchmarks than complex coverage-based techniques.</t>
   </si>
   <si>
+    <t>Commons-math, Commons-io, Apache Avro, H2, etc</t>
+  </si>
+  <si>
+    <t>Domain = Java Microbenchmark Suites (JMH-based)
+#Test Cases = 267</t>
+  </si>
+  <si>
+    <t>Execution time, regression sensitivity,historical performance data, benchmark metadata, diversity metrics, cost models</t>
+  </si>
+  <si>
+    <t>Performance Degradation Detection Rate, Execution Cost, Utility Score, Pareto Front, Wilcoxon signed-rank test</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bo Jiang,W.K. Chan </t>
   </si>
   <si>
@@ -544,13 +1162,31 @@
   </si>
   <si>
     <t>Test case prioritization assigns the execution priorities of the test cases in a given test suite. Many existing test case prioritization techniques assume the full-fledged availability of code coverage data, fault history, or test specification, which are seldom well-maintained in real-world software development projects. This paper proposes a novel family of input-based local-beam-search adaptive-randomized techniques. They make adaptive tree-based randomized explorations with a randomized candidate test set strategy to even out the search space explorations among the branches of the exploration trees constructed by the test inputs in the test suite. We report a validation experiment on a suite of four medium-size benchmarks. The results show that our techniques achieve either higher APFD values than or the same mean APFD values as the existing code-coverage-based greedy or search-based prioritization techniques, including Genetic, Greedy and ART, in both our controlled experiment and case study. Our techniques are also significantly more efficient than the Genetic and Greedy, but are less efficient than ART.</t>
+  </si>
+  <si>
+    <t>Pub Year: 2015
+Method: Prioritization</t>
+  </si>
+  <si>
+    <t>JTopas, XML-Security, Ant, JMeter, JParsec, JFreeChart</t>
+  </si>
+  <si>
+    <t>Domain = Java Open-Source Libraries / Tools
+#Test Cases = 372–2,100
+LOC = 7K–96K</t>
+  </si>
+  <si>
+    <t>Code coverage, mutation faults, test execution time, fault detection history, test diversity, APFD score, test length</t>
+  </si>
+  <si>
+    <t>APFD, Mutation Score, Test Suite Size, Execution Time, Wilcoxon signed-rank test, Effect size analysis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,16 +1208,83 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7B7B7B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7B7B7B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7B7B7B"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7B7B7B"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFF0F0A5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F0A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEDED"/>
+        <bgColor rgb="FFEDEDED"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -604,11 +1307,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -616,12 +1425,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF0F0A5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -920,15 +1811,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW32"/>
+  <dimension ref="A1:BD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="AA21" workbookViewId="0">
+      <selection activeCell="AR10" sqref="AR10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="41" max="41" width="22.7109375" customWidth="1"/>
+    <col min="42" max="42" width="21.42578125" customWidth="1"/>
+    <col min="43" max="43" width="29.42578125" customWidth="1"/>
+    <col min="44" max="44" width="19.140625" customWidth="1"/>
+    <col min="45" max="45" width="22.5703125" customWidth="1"/>
+    <col min="46" max="46" width="23.7109375" customWidth="1"/>
+    <col min="47" max="47" width="18" customWidth="1"/>
+    <col min="48" max="48" width="11.7109375" customWidth="1"/>
+    <col min="49" max="49" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:56">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1049,35 +1951,35 @@
       <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:56" ht="76.5">
       <c r="C2" t="s">
         <v>49</v>
       </c>
@@ -1096,588 +1998,1305 @@
       <c r="AN2" t="s">
         <v>53</v>
       </c>
+      <c r="AO2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:56" ht="244.5">
       <c r="C3" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>2018</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="AN3" t="s">
         <v>53</v>
       </c>
+      <c r="AO3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW3" s="8">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:56" ht="60.75">
       <c r="C4" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F4">
         <v>2016</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="AN4" t="s">
         <v>53</v>
       </c>
+      <c r="AO4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP4" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AR4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW4" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:56" ht="76.5">
       <c r="C5" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F5">
         <v>2019</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="AN5" t="s">
         <v>53</v>
       </c>
+      <c r="AO5" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP5" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ5" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR5" s="27"/>
+      <c r="AS5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="AT5" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU5" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV5" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW5" s="28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:56" ht="60.75">
       <c r="C6" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="F6">
         <v>2016</v>
       </c>
       <c r="J6" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="AN6" t="s">
         <v>53</v>
       </c>
+      <c r="AO6" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="AP6" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ6" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AR6" s="26"/>
+      <c r="AS6" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT6" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU6" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV6" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW6" s="26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:56" ht="76.5">
       <c r="C7" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="F7">
         <v>2018</v>
       </c>
       <c r="J7" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="AN7" t="s">
         <v>53</v>
       </c>
+      <c r="AO7" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP7" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ7" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR7" s="31"/>
+      <c r="AS7" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="AT7" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU7" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="AV7" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="AW7" s="30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:56" ht="60.75">
       <c r="C8" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="F8">
         <v>2021</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="AN8" t="s">
         <v>53</v>
       </c>
+      <c r="AO8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ8" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT8" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU8" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="AV8" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW8" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:56" ht="60.75">
       <c r="C9" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="F9">
         <v>2024</v>
       </c>
       <c r="J9" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="AN9" t="s">
         <v>53</v>
       </c>
+      <c r="AO9" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP9" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ9" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS9" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT9" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU9" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV9" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW9" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:56" ht="30.75">
       <c r="C10" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="E10" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="F10">
         <v>2023</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="AN10" t="s">
-        <v>86</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AO10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="15"/>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="15"/>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:56" ht="60.75">
       <c r="C11" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="F11">
         <v>2024</v>
       </c>
       <c r="J11" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="AN11" t="s">
         <v>53</v>
       </c>
+      <c r="AO11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP11" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ11" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AT11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AU11" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AV11" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AW11" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:56" ht="152.25">
       <c r="C12" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>156</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="F12">
         <v>2022</v>
       </c>
       <c r="J12" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="AN12" t="s">
         <v>53</v>
       </c>
+      <c r="AO12" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP12" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ12" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT12" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU12" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="AV12" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="AW12" s="7" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:56" ht="30.75">
       <c r="C13" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="F13">
         <v>2021</v>
       </c>
       <c r="J13" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="s">
-        <v>99</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AO13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AP13" s="16"/>
+      <c r="AQ13" s="16"/>
+      <c r="AR13" s="16"/>
+      <c r="AS13" s="16"/>
+      <c r="AT13" s="16"/>
+      <c r="AU13" s="16"/>
+      <c r="AV13" s="16"/>
+      <c r="AW13" s="16"/>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:56" ht="30.75">
       <c r="C14" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="F14">
         <v>2021</v>
       </c>
       <c r="J14" t="s">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="AN14" t="s">
-        <v>86</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AO14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AP14" s="16"/>
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="16"/>
+      <c r="AS14" s="16"/>
+      <c r="AT14" s="16"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="16"/>
+      <c r="AW14" s="16"/>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:56" ht="60.75">
       <c r="C15" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="F15">
         <v>2024</v>
       </c>
       <c r="J15" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="s">
         <v>53</v>
       </c>
+      <c r="AO15" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP15" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ15" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR15" s="8"/>
+      <c r="AS15" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="AT15" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="AU15" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV15" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AW15" s="7">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:56" ht="91.5">
       <c r="C16" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="F16">
         <v>2021</v>
       </c>
       <c r="J16" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="AN16" t="s">
         <v>53</v>
       </c>
+      <c r="AO16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="AP16" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="AQ16" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="AR16" s="8"/>
+      <c r="AS16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="AT16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="AU16" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV16" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="BB16" s="4"/>
+      <c r="BC16" s="5"/>
+      <c r="BD16" s="6"/>
     </row>
-    <row r="17" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:49" ht="60.75">
       <c r="C17" t="s">
-        <v>112</v>
+        <v>198</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="E17" t="s">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="F17">
         <v>2019</v>
       </c>
       <c r="J17" t="s">
-        <v>115</v>
+        <v>201</v>
       </c>
       <c r="AN17" t="s">
         <v>53</v>
       </c>
+      <c r="AO17" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="AP17" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ17" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AT17" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU17" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV17" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AW17" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:49" ht="60.75">
       <c r="C18" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="E18" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c r="F18">
         <v>2022</v>
       </c>
       <c r="J18" t="s">
-        <v>119</v>
+        <v>212</v>
       </c>
       <c r="AN18" t="s">
         <v>53</v>
       </c>
+      <c r="AO18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP18" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="AQ18" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="AT18" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="AU18" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="AV18" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="AW18" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:49" ht="60.75">
       <c r="C19" t="s">
-        <v>120</v>
+        <v>219</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>220</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>221</v>
       </c>
       <c r="F19">
         <v>2022</v>
       </c>
       <c r="J19" t="s">
-        <v>123</v>
+        <v>222</v>
       </c>
       <c r="AN19" t="s">
         <v>53</v>
       </c>
+      <c r="AO19" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP19" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="AQ19" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR19" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS19" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="AT19" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="AU19" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="AV19" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="AW19" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:49" ht="60.75">
       <c r="C20" t="s">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
+        <v>232</v>
       </c>
       <c r="F20">
         <v>2022</v>
       </c>
       <c r="J20" t="s">
-        <v>127</v>
+        <v>233</v>
       </c>
       <c r="AN20" t="s">
         <v>53</v>
       </c>
+      <c r="AO20" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP20" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="AQ20" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="AR20" s="13"/>
+      <c r="AS20" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="AT20" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AU20" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="AV20" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="AW20" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:49" ht="76.5">
       <c r="C21" t="s">
-        <v>128</v>
+        <v>241</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>242</v>
       </c>
       <c r="E21" t="s">
-        <v>130</v>
+        <v>243</v>
       </c>
       <c r="F21">
         <v>2023</v>
       </c>
       <c r="J21" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="AN21" t="s">
         <v>53</v>
       </c>
+      <c r="AO21" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AP21" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="AQ21" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="AR21" s="14"/>
+      <c r="AS21" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="AT21" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU21" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV21" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="AW21" s="12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:49" ht="76.5">
       <c r="C22" t="s">
-        <v>132</v>
+        <v>251</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>252</v>
       </c>
       <c r="E22" t="s">
-        <v>134</v>
+        <v>253</v>
       </c>
       <c r="F22">
         <v>2022</v>
       </c>
       <c r="J22" t="s">
-        <v>135</v>
+        <v>254</v>
       </c>
       <c r="AN22" t="s">
         <v>53</v>
       </c>
+      <c r="AO22" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP22" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="AQ22" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="AR22" s="13"/>
+      <c r="AS22" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="AT22" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU22" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="AV22" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="AW22" s="12">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="23" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:49" ht="91.5">
       <c r="C23" t="s">
-        <v>136</v>
+        <v>261</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>262</v>
       </c>
       <c r="E23" t="s">
-        <v>138</v>
+        <v>263</v>
       </c>
       <c r="F23">
         <v>2023</v>
       </c>
       <c r="J23" t="s">
-        <v>139</v>
+        <v>264</v>
       </c>
       <c r="AN23" t="s">
         <v>53</v>
       </c>
+      <c r="AO23" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AP23" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="AQ23" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="AR23" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS23" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="AT23" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="AU23" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="AV23" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="AW23" s="12">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="24" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:49" ht="60.75">
       <c r="C24" t="s">
-        <v>140</v>
+        <v>271</v>
       </c>
       <c r="D24" t="s">
-        <v>141</v>
+        <v>272</v>
       </c>
       <c r="E24" t="s">
-        <v>142</v>
+        <v>273</v>
       </c>
       <c r="F24">
         <v>2023</v>
       </c>
       <c r="J24" t="s">
-        <v>143</v>
+        <v>274</v>
       </c>
       <c r="AN24" t="s">
         <v>53</v>
       </c>
+      <c r="AO24" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AP24" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ24" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="AR24" s="18"/>
+      <c r="AS24" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="AT24" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="AU24" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="AV24" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="AW24" s="12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:49">
       <c r="C25" t="s">
-        <v>144</v>
+        <v>281</v>
       </c>
       <c r="D25" t="s">
-        <v>145</v>
+        <v>282</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>283</v>
       </c>
       <c r="F25">
         <v>2019</v>
       </c>
       <c r="J25" t="s">
-        <v>147</v>
+        <v>284</v>
       </c>
       <c r="AN25" t="s">
         <v>53</v>
       </c>
+      <c r="AO25" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="AP25" s="17"/>
+      <c r="AQ25" s="17"/>
+      <c r="AR25" s="17"/>
+      <c r="AS25" s="17"/>
+      <c r="AT25" s="17"/>
+      <c r="AU25" s="17"/>
+      <c r="AV25" s="17"/>
+      <c r="AW25" s="17"/>
     </row>
-    <row r="26" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:49" ht="60.75">
       <c r="C26" t="s">
-        <v>148</v>
+        <v>286</v>
       </c>
       <c r="D26" t="s">
-        <v>137</v>
+        <v>262</v>
       </c>
       <c r="E26" t="s">
-        <v>149</v>
+        <v>287</v>
       </c>
       <c r="F26">
         <v>2023</v>
       </c>
       <c r="J26" t="s">
-        <v>150</v>
+        <v>288</v>
       </c>
       <c r="AN26" t="s">
         <v>53</v>
       </c>
+      <c r="AO26" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="AP26" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="AQ26" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="AR26" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS26" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="AT26" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="AU26" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="AV26" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="AW26" s="22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:49" ht="30.75">
       <c r="C27" t="s">
-        <v>151</v>
+        <v>296</v>
       </c>
       <c r="D27" t="s">
-        <v>152</v>
+        <v>297</v>
       </c>
       <c r="E27" t="s">
-        <v>153</v>
+        <v>298</v>
       </c>
       <c r="F27">
         <v>2021</v>
       </c>
       <c r="J27" t="s">
-        <v>154</v>
+        <v>299</v>
       </c>
       <c r="AN27" t="s">
         <v>53</v>
       </c>
+      <c r="AO27" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP27" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ27" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="AR27" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="AS27" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="AT27" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="AU27" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="AV27" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="AW27" s="24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:49" ht="76.5">
       <c r="C28" t="s">
-        <v>155</v>
+        <v>305</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>306</v>
       </c>
       <c r="E28" t="s">
-        <v>157</v>
+        <v>307</v>
       </c>
       <c r="F28">
         <v>2022</v>
       </c>
       <c r="J28" t="s">
-        <v>158</v>
+        <v>308</v>
       </c>
       <c r="AN28" t="s">
         <v>53</v>
       </c>
+      <c r="AO28" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="AP28" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="AQ28" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="AR28" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="AS28" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="AT28" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="AU28" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="AV28" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW28" s="22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:49" ht="60.75">
       <c r="C29" t="s">
-        <v>159</v>
+        <v>316</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>317</v>
       </c>
       <c r="E29" t="s">
-        <v>161</v>
+        <v>318</v>
       </c>
       <c r="F29">
         <v>2024</v>
       </c>
       <c r="J29" t="s">
-        <v>162</v>
+        <v>319</v>
       </c>
       <c r="AN29" t="s">
         <v>53</v>
       </c>
+      <c r="AO29" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="AP29" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="AQ29" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="AR29" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="AS29" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="AT29" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="AU29" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="AV29" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="AW29" s="24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="3:40" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:49" ht="60.75">
       <c r="C30" t="s">
-        <v>163</v>
+        <v>326</v>
       </c>
       <c r="D30" t="s">
         <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>164</v>
+        <v>327</v>
       </c>
       <c r="F30">
         <v>2024</v>
       </c>
       <c r="J30" t="s">
-        <v>165</v>
+        <v>328</v>
       </c>
       <c r="AN30" t="s">
         <v>53</v>
       </c>
+      <c r="AO30" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP30" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="AQ30" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="AR30" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS30" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="AT30" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="AU30" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="AV30" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="AW30" s="22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:49" ht="34.5" customHeight="1">
       <c r="C31" s="2" t="s">
-        <v>166</v>
+        <v>333</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="E31" t="s">
-        <v>167</v>
+        <v>334</v>
       </c>
       <c r="F31">
         <v>2015</v>
       </c>
       <c r="J31" t="s">
-        <v>168</v>
+        <v>335</v>
       </c>
       <c r="AN31" t="s">
         <v>53</v>
       </c>
+      <c r="AO31" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="AP31" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="AQ31" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="AR31" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AS31" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="AT31" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="AU31" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="AV31" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="AW31" s="20">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="32" spans="3:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:49" ht="15.95" customHeight="1">
       <c r="C32" s="2"/>
     </row>
   </sheetData>
@@ -1687,26 +3306,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab92c565-5003-4ac3-93a3-a3ce8796a3c0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B6889C2593FACB4192549183B8B19287" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="32060b2073082e2092342fdaa07ba96e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab92c565-5003-4ac3-93a3-a3ce8796a3c0" xmlns:ns3="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="930e06c061e109ec993a06acfd2977e1" ns2:_="" ns3:_="">
     <xsd:import namespace="ab92c565-5003-4ac3-93a3-a3ce8796a3c0"/>
@@ -1901,40 +3500,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab92c565-5003-4ac3-93a3-a3ce8796a3c0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBAD60B-7F90-4002-B404-308E08C2026F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab92c565-5003-4ac3-93a3-a3ce8796a3c0"/>
-    <ds:schemaRef ds:uri="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E40287F7-4059-4E25-8701-97E33E6EB93E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B179898C-7A33-44FD-8FB3-412E9BC3E39D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B179898C-7A33-44FD-8FB3-412E9BC3E39D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E40287F7-4059-4E25-8701-97E33E6EB93E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ab92c565-5003-4ac3-93a3-a3ce8796a3c0"/>
-    <ds:schemaRef ds:uri="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBAD60B-7F90-4002-B404-308E08C2026F}"/>
 </file>
--- a/7_Data_Extraction/Data_Extraction_Bartolomeo.xlsx
+++ b/7_Data_Extraction/Data_Extraction_Bartolomeo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/7_Data_Extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="177" documentId="13_ncr:1_{FCCCB76F-2F57-C54F-9130-0DC04A9349A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1BAD299-3E42-4795-AFDC-F3ED830604E3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ACDFCA-CB9E-3B4A-BABF-40AEEA936461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="6280" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -415,6 +415,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
       </rPr>
       <t>Dynamic_Hybrid_File+Method</t>
     </r>
@@ -1186,7 +1187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1238,17 +1239,20 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7B7B7B"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF7B7B7B"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1417,7 +1421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1465,20 +1469,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1813,24 +1811,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA21" workbookViewId="0">
-      <selection activeCell="AR10" sqref="AR10"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AU5" sqref="AU5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="41" max="41" width="22.7109375" customWidth="1"/>
-    <col min="42" max="42" width="21.42578125" customWidth="1"/>
-    <col min="43" max="43" width="29.42578125" customWidth="1"/>
-    <col min="44" max="44" width="19.140625" customWidth="1"/>
-    <col min="45" max="45" width="22.5703125" customWidth="1"/>
-    <col min="46" max="46" width="23.7109375" customWidth="1"/>
+    <col min="41" max="41" width="22.6640625" customWidth="1"/>
+    <col min="42" max="42" width="21.5" customWidth="1"/>
+    <col min="43" max="43" width="29.5" customWidth="1"/>
+    <col min="44" max="44" width="19.1640625" customWidth="1"/>
+    <col min="45" max="45" width="22.5" customWidth="1"/>
+    <col min="46" max="46" width="23.6640625" customWidth="1"/>
     <col min="47" max="47" width="18" customWidth="1"/>
-    <col min="48" max="48" width="11.7109375" customWidth="1"/>
-    <col min="49" max="49" width="13.28515625" customWidth="1"/>
+    <col min="48" max="48" width="11.6640625" customWidth="1"/>
+    <col min="49" max="49" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1979,7 +1977,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="76.5">
+    <row r="2" spans="1:56" ht="64" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
         <v>49</v>
       </c>
@@ -2024,7 +2022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:56" ht="244.5">
+    <row r="3" spans="1:56" ht="240" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>61</v>
       </c>
@@ -2069,7 +2067,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:56" ht="60.75">
+    <row r="4" spans="1:56" ht="48" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>72</v>
       </c>
@@ -2116,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:56" ht="76.5">
+    <row r="5" spans="1:56" ht="48" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>84</v>
       </c>
@@ -2135,33 +2133,33 @@
       <c r="AN5" t="s">
         <v>53</v>
       </c>
-      <c r="AO5" s="27" t="s">
+      <c r="AO5" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="AP5" s="28" t="s">
+      <c r="AP5" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="AQ5" s="28" t="s">
+      <c r="AQ5" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="AR5" s="27"/>
-      <c r="AS5" s="28" t="s">
+      <c r="AR5" s="25"/>
+      <c r="AS5" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="AT5" s="27" t="s">
+      <c r="AT5" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="AU5" s="28" t="s">
+      <c r="AU5" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="AV5" s="28" t="s">
+      <c r="AV5" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="AW5" s="28">
+      <c r="AW5" s="26">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:56" ht="60.75">
+    <row r="6" spans="1:56" ht="64" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>95</v>
       </c>
@@ -2180,33 +2178,33 @@
       <c r="AN6" t="s">
         <v>53</v>
       </c>
-      <c r="AO6" s="25" t="s">
+      <c r="AO6" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="AP6" s="26" t="s">
+      <c r="AP6" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="AQ6" s="26" t="s">
+      <c r="AQ6" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="AR6" s="26"/>
-      <c r="AS6" s="26" t="s">
+      <c r="AR6" s="24"/>
+      <c r="AS6" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="AT6" s="25" t="s">
+      <c r="AT6" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="AU6" s="26" t="s">
+      <c r="AU6" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="AV6" s="26" t="s">
+      <c r="AV6" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="AW6" s="26">
+      <c r="AW6" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:56" ht="76.5">
+    <row r="7" spans="1:56" ht="80" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>105</v>
       </c>
@@ -2225,33 +2223,33 @@
       <c r="AN7" t="s">
         <v>53</v>
       </c>
-      <c r="AO7" s="29" t="s">
+      <c r="AO7" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="AP7" s="30" t="s">
+      <c r="AP7" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="AQ7" s="30" t="s">
+      <c r="AQ7" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="AR7" s="31"/>
-      <c r="AS7" s="30" t="s">
+      <c r="AR7" s="29"/>
+      <c r="AS7" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="AT7" s="29" t="s">
+      <c r="AT7" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="AU7" s="29" t="s">
+      <c r="AU7" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="AV7" s="30" t="s">
+      <c r="AV7" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="AW7" s="30">
+      <c r="AW7" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:56" ht="60.75">
+    <row r="8" spans="1:56" ht="64" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>115</v>
       </c>
@@ -2296,7 +2294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:56" ht="60.75">
+    <row r="9" spans="1:56" ht="64" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>126</v>
       </c>
@@ -2343,7 +2341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:56" ht="30.75">
+    <row r="10" spans="1:56" ht="32" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>138</v>
       </c>
@@ -2374,7 +2372,7 @@
       <c r="AV10" s="15"/>
       <c r="AW10" s="15"/>
     </row>
-    <row r="11" spans="1:56" ht="60.75">
+    <row r="11" spans="1:56" ht="64" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>144</v>
       </c>
@@ -2419,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:56" ht="152.25">
+    <row r="12" spans="1:56" ht="144" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>155</v>
       </c>
@@ -2464,7 +2462,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:56" ht="30.75">
+    <row r="13" spans="1:56" ht="32" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>167</v>
       </c>
@@ -2495,7 +2493,7 @@
       <c r="AV13" s="16"/>
       <c r="AW13" s="16"/>
     </row>
-    <row r="14" spans="1:56" ht="30.75">
+    <row r="14" spans="1:56" ht="32" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>173</v>
       </c>
@@ -2526,7 +2524,7 @@
       <c r="AV14" s="16"/>
       <c r="AW14" s="16"/>
     </row>
-    <row r="15" spans="1:56" ht="60.75">
+    <row r="15" spans="1:56" ht="64" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
         <v>177</v>
       </c>
@@ -2571,7 +2569,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:56" ht="91.5">
+    <row r="16" spans="1:56" ht="96" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>188</v>
       </c>
@@ -2619,7 +2617,7 @@
       <c r="BC16" s="5"/>
       <c r="BD16" s="6"/>
     </row>
-    <row r="17" spans="3:49" ht="60.75">
+    <row r="17" spans="3:49" ht="64" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>198</v>
       </c>
@@ -2664,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:49" ht="60.75">
+    <row r="18" spans="3:49" ht="48" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>209</v>
       </c>
@@ -2709,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:49" ht="60.75">
+    <row r="19" spans="3:49" ht="64" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
         <v>219</v>
       </c>
@@ -2756,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:49" ht="60.75">
+    <row r="20" spans="3:49" ht="64" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>230</v>
       </c>
@@ -2801,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:49" ht="76.5">
+    <row r="21" spans="3:49" ht="80" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>241</v>
       </c>
@@ -2846,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:49" ht="76.5">
+    <row r="22" spans="3:49" ht="64" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>251</v>
       </c>
@@ -2891,7 +2889,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="3:49" ht="91.5">
+    <row r="23" spans="3:49" ht="96" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>261</v>
       </c>
@@ -2938,7 +2936,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="3:49" ht="60.75">
+    <row r="24" spans="3:49" ht="64" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>271</v>
       </c>
@@ -2983,7 +2981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:49">
+    <row r="25" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>281</v>
       </c>
@@ -3014,7 +3012,7 @@
       <c r="AV25" s="17"/>
       <c r="AW25" s="17"/>
     </row>
-    <row r="26" spans="3:49" ht="60.75">
+    <row r="26" spans="3:49" ht="64" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>286</v>
       </c>
@@ -3061,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:49" ht="30.75">
+    <row r="27" spans="3:49" ht="32" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>296</v>
       </c>
@@ -3080,35 +3078,35 @@
       <c r="AN27" t="s">
         <v>53</v>
       </c>
-      <c r="AO27" s="23" t="s">
+      <c r="AO27" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="AP27" s="24" t="s">
+      <c r="AP27" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="AQ27" s="24" t="s">
+      <c r="AQ27" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="AR27" s="24" t="s">
+      <c r="AR27" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="AS27" s="24" t="s">
+      <c r="AS27" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="AT27" s="23" t="s">
+      <c r="AT27" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="AU27" s="24" t="s">
+      <c r="AU27" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="AV27" s="24" t="s">
+      <c r="AV27" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="AW27" s="24">
+      <c r="AW27" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:49" ht="76.5">
+    <row r="28" spans="3:49" ht="80" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>305</v>
       </c>
@@ -3155,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:49" ht="60.75">
+    <row r="29" spans="3:49" ht="64" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
         <v>316</v>
       </c>
@@ -3174,35 +3172,35 @@
       <c r="AN29" t="s">
         <v>53</v>
       </c>
-      <c r="AO29" s="23" t="s">
+      <c r="AO29" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="AP29" s="24" t="s">
+      <c r="AP29" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="AQ29" s="24" t="s">
+      <c r="AQ29" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="AR29" s="24" t="s">
+      <c r="AR29" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="AS29" s="24" t="s">
+      <c r="AS29" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="AT29" s="23" t="s">
+      <c r="AT29" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="AU29" s="24" t="s">
+      <c r="AU29" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="AV29" s="24" t="s">
+      <c r="AV29" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="AW29" s="24">
+      <c r="AW29" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:49" ht="60.75">
+    <row r="30" spans="3:49" ht="64" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>326</v>
       </c>
@@ -3249,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:49" ht="34.5" customHeight="1">
+    <row r="31" spans="3:49" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="2" t="s">
         <v>333</v>
       </c>
@@ -3296,7 +3294,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="3:49" ht="15.95" customHeight="1">
+    <row r="32" spans="3:49" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="2"/>
     </row>
   </sheetData>
@@ -3501,15 +3499,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab92c565-5003-4ac3-93a3-a3ce8796a3c0">
@@ -3520,14 +3509,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E40287F7-4059-4E25-8701-97E33E6EB93E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E40287F7-4059-4E25-8701-97E33E6EB93E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ab92c565-5003-4ac3-93a3-a3ce8796a3c0"/>
+    <ds:schemaRef ds:uri="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B179898C-7A33-44FD-8FB3-412E9BC3E39D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBAD60B-7F90-4002-B404-308E08C2026F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab92c565-5003-4ac3-93a3-a3ce8796a3c0"/>
+    <ds:schemaRef ds:uri="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBAD60B-7F90-4002-B404-308E08C2026F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B179898C-7A33-44FD-8FB3-412E9BC3E39D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/7_Data_Extraction/Data_Extraction_Bartolomeo.xlsx
+++ b/7_Data_Extraction/Data_Extraction_Bartolomeo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniotrovato/Documents/GitHub/RegressionTestingOptimizationSLR/7_Data_Extraction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ACDFCA-CB9E-3B4A-BABF-40AEEA936461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821E2250-AB2C-104B-B0EE-5A1DFD82B937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="28800" windowHeight="15580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1811,8 +1811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AU5" sqref="AU5"/>
+    <sheetView tabSelected="1" topLeftCell="AB3" workbookViewId="0">
+      <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2176,7 +2176,7 @@
         <v>98</v>
       </c>
       <c r="AN6" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="AO6" s="23" t="s">
         <v>99</v>
@@ -2998,7 +2998,7 @@
         <v>284</v>
       </c>
       <c r="AN25" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="AO25" s="17" t="s">
         <v>285</v>
@@ -3304,6 +3304,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab92c565-5003-4ac3-93a3-a3ce8796a3c0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B6889C2593FACB4192549183B8B19287" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="32060b2073082e2092342fdaa07ba96e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ab92c565-5003-4ac3-93a3-a3ce8796a3c0" xmlns:ns3="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="930e06c061e109ec993a06acfd2977e1" ns2:_="" ns3:_="">
     <xsd:import namespace="ab92c565-5003-4ac3-93a3-a3ce8796a3c0"/>
@@ -3498,27 +3518,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ab92c565-5003-4ac3-93a3-a3ce8796a3c0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBAD60B-7F90-4002-B404-308E08C2026F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ab92c565-5003-4ac3-93a3-a3ce8796a3c0"/>
+    <ds:schemaRef ds:uri="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B179898C-7A33-44FD-8FB3-412E9BC3E39D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E40287F7-4059-4E25-8701-97E33E6EB93E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3535,23 +3554,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBAD60B-7F90-4002-B404-308E08C2026F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ab92c565-5003-4ac3-93a3-a3ce8796a3c0"/>
-    <ds:schemaRef ds:uri="aa1b21cb-23df-461b-8b8e-4aaeac2f3f50"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B179898C-7A33-44FD-8FB3-412E9BC3E39D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>